--- a/xls/hedge.xlsx
+++ b/xls/hedge.xlsx
@@ -5,21 +5,40 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\FRE6233\Spring2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\FRE6233\Spring2023\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C280E23-18A2-49FB-A31C-D29AC1E6D956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C78CD5D-1F92-4BF7-B1BD-13AA211FA4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B180D58D-C4F9-40E2-AED8-646FAEC4081C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B180D58D-C4F9-40E2-AED8-646FAEC4081C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="put" sheetId="2" r:id="rId1"/>
+    <sheet name="hedge" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="f">Sheet1!$C$2</definedName>
-    <definedName name="k">Sheet1!$C$4</definedName>
-    <definedName name="sigma">Sheet1!$C$3</definedName>
-    <definedName name="t">Sheet1!$C$5</definedName>
+    <definedName name="A_t">_xlfn.ANCHORARRAY(hedge!$P$11)</definedName>
+    <definedName name="B_t">_xlfn.ANCHORARRAY(hedge!$K$11)</definedName>
+    <definedName name="dt">hedge!$J$4</definedName>
+    <definedName name="f" localSheetId="0">put!$C$2</definedName>
+    <definedName name="f">hedge!$C$2</definedName>
+    <definedName name="forward">_xlfn.ANCHORARRAY(put!$B$10)</definedName>
+    <definedName name="incr">put!$C$7</definedName>
+    <definedName name="k" localSheetId="0">put!$C$4</definedName>
+    <definedName name="k">hedge!$C$4</definedName>
+    <definedName name="M_t">_xlfn.ANCHORARRAY(hedge!$M$11)</definedName>
+    <definedName name="N_t">_xlfn.ANCHORARRAY(hedge!$N$11)</definedName>
+    <definedName name="NABLA" comment="Adjacent differences.">_xlfn.LAMBDA(_xlpm.a,_xlpm.a - _xlfn.VSTACK(0, _xlfn.DROP(_xlpm.a,-1)))</definedName>
+    <definedName name="s">put!$C$3</definedName>
+    <definedName name="S_t">_xlfn.ANCHORARRAY(hedge!$L$11)</definedName>
+    <definedName name="sigma">hedge!$C$3</definedName>
+    <definedName name="start">put!$C$5</definedName>
+    <definedName name="stop">put!$C$6</definedName>
+    <definedName name="SUMSCAN" comment="Running sum.">_xlfn.LAMBDA(_xlpm.init,_xlpm.array, _xlfn.SCAN(_xlpm.init, _xlpm.array, _xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a + _xlpm.b)))</definedName>
+    <definedName name="t">hedge!$C$5</definedName>
+    <definedName name="time">_xlfn.ANCHORARRAY(hedge!$J$11)</definedName>
+    <definedName name="V_0">hedge!$F$5</definedName>
+    <definedName name="V_t">_xlfn.ANCHORARRAY(hedge!$O$11)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>f</t>
   </si>
@@ -81,13 +100,73 @@
     <t>value</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>B_t</t>
+  </si>
+  <si>
+    <t>M_t</t>
+  </si>
+  <si>
+    <t>N_t</t>
+  </si>
+  <si>
+    <t>V_0</t>
+  </si>
+  <si>
+    <t>V_t</t>
+  </si>
+  <si>
+    <t>A_t</t>
+  </si>
+  <si>
+    <t>S_t</t>
+  </si>
+  <si>
+    <t>payoff</t>
+  </si>
+  <si>
     <t>dt</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>hedge</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>incr</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -174,13 +253,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -201,6 +285,1789 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>put value vs forward</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>put!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>put!$B$10:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>104.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>put!$C$10:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>10.712380896073668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.294677506113544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8840036464770265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4806843048876601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.08503447796231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6973570641119409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3179408286409853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9470584651267728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5849647756893717</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2318949909191304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.888063248060746</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5536612436099873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2288570738163145</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9137942737611979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6085910627585776</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3133398008569586</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0281066582734866</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7529314967108292</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4878279587501808</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.2327837589224231</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.987761167674492</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7526976773019953</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5275068370385441</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.312079242895976</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1062836665495652</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9099683065654887</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7229621445706016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5450763885632526</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3761059854440703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2158311849914725</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0640191378988462</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9204255111019037</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7847961044341965</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6568684536239964</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5363734057617506</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4230366545934707</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3165802243033653</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2167238918134409</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1231865390193008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0356874277797097</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95394739185721988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A23F-44C5-8635-D041793B5A63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>put!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>put!$B$10:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>104.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>put!$D$10:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-0.84221551595581456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.82848702968721688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.81410000768947355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.79907228943900976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.78342598418040599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.76718735139091088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.75038663187697674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.73305783204864272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.71523846469983687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.69696925032178747</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.67829378357907921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.65925817007310705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.63991063889834621</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.62030113675887699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.60048090955500588</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.58050207737457071</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.56041720873549106</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.54027889973246879</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.52013936345096734</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.50005003463671993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.48006119416162751</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.46022161732021483</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.44057824943889751</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.4211759116969615</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.40205703945726845</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.38326145479934082</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.36482617434996428</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.34678525292799622</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.32916966297055916</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.3120072091957603</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.29532247748951701</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.2791368165864207</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.26346835075082736</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.24833202135697074</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.23373965501690736</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.21970005571234341</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.20621911824945555</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.19329996027231139</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.18094307003719762</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.16914646716308984</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.15790587362820607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A23F-44C5-8635-D041793B5A63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>put!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>payoff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>put!$B$10:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>104.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>put!$E$10:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A23F-44C5-8635-D041793B5A63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1683586000"/>
+        <c:axId val="1683588912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1683586000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683588912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1683588912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683586000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7092AB5-5BD6-B8DD-7C3C-94F6B9AB53EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,24 +2366,687 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A63909C-82BF-46E9-986B-4B9C7D61A01A}">
-  <dimension ref="B2:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0483937-5CB5-4886-A4D4-DEA42E04738B}">
+  <dimension ref="B2:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" cm="1">
+        <f t="array" ref="B10:B50">_xll.ARRAY.SEQUENCE(start,stop,incr)</f>
+        <v>90</v>
+      </c>
+      <c r="C10" cm="1">
+        <f t="array" ref="C10:C50">_xlfn.MAP(forward,_xlfn.LAMBDA(_xlpm.f_,_xll.BLACK.PUT.VALUE(_xlpm.f_,s,k)))</f>
+        <v>10.712380896073668</v>
+      </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10:D50">_xlfn.MAP(forward,_xlfn.LAMBDA(_xlpm.f_,_xll.BLACK.PUT.DELTA(_xlpm.f_,s,k)))</f>
+        <v>-0.84221551595581456</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10:E50">_xlfn.MAP(forward, _xlfn.LAMBDA(_xlpm.f_, MAX(k - _xlpm.f_,0)))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>90.5</v>
+      </c>
+      <c r="C11">
+        <v>10.294677506113544</v>
+      </c>
+      <c r="D11">
+        <v>-0.82848702968721688</v>
+      </c>
+      <c r="E11">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>91</v>
+      </c>
+      <c r="C12">
+        <v>9.8840036464770265</v>
+      </c>
+      <c r="D12">
+        <v>-0.81410000768947355</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>91.5</v>
+      </c>
+      <c r="C13">
+        <v>9.4806843048876601</v>
+      </c>
+      <c r="D13">
+        <v>-0.79907228943900976</v>
+      </c>
+      <c r="E13">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>92</v>
+      </c>
+      <c r="C14">
+        <v>9.08503447796231</v>
+      </c>
+      <c r="D14">
+        <v>-0.78342598418040599</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>92.5</v>
+      </c>
+      <c r="C15">
+        <v>8.6973570641119409</v>
+      </c>
+      <c r="D15">
+        <v>-0.76718735139091088</v>
+      </c>
+      <c r="E15">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>8.3179408286409853</v>
+      </c>
+      <c r="D16">
+        <v>-0.75038663187697674</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>93.5</v>
+      </c>
+      <c r="C17">
+        <v>7.9470584651267728</v>
+      </c>
+      <c r="D17">
+        <v>-0.73305783204864272</v>
+      </c>
+      <c r="E17">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>94</v>
+      </c>
+      <c r="C18">
+        <v>7.5849647756893717</v>
+      </c>
+      <c r="D18">
+        <v>-0.71523846469983687</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>94.5</v>
+      </c>
+      <c r="C19">
+        <v>7.2318949909191304</v>
+      </c>
+      <c r="D19">
+        <v>-0.69696925032178747</v>
+      </c>
+      <c r="E19">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <v>6.888063248060746</v>
+      </c>
+      <c r="D20">
+        <v>-0.67829378357907921</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>95.5</v>
+      </c>
+      <c r="C21">
+        <v>6.5536612436099873</v>
+      </c>
+      <c r="D21">
+        <v>-0.65925817007310705</v>
+      </c>
+      <c r="E21">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>96</v>
+      </c>
+      <c r="C22">
+        <v>6.2288570738163145</v>
+      </c>
+      <c r="D22">
+        <v>-0.63991063889834621</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>96.5</v>
+      </c>
+      <c r="C23">
+        <v>5.9137942737611979</v>
+      </c>
+      <c r="D23">
+        <v>-0.62030113675887699</v>
+      </c>
+      <c r="E23">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>5.6085910627585776</v>
+      </c>
+      <c r="D24">
+        <v>-0.60048090955500588</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>97.5</v>
+      </c>
+      <c r="C25">
+        <v>5.3133398008569586</v>
+      </c>
+      <c r="D25">
+        <v>-0.58050207737457071</v>
+      </c>
+      <c r="E25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>98</v>
+      </c>
+      <c r="C26">
+        <v>5.0281066582734866</v>
+      </c>
+      <c r="D26">
+        <v>-0.56041720873549106</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>98.5</v>
+      </c>
+      <c r="C27">
+        <v>4.7529314967108292</v>
+      </c>
+      <c r="D27">
+        <v>-0.54027889973246879</v>
+      </c>
+      <c r="E27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="C28">
+        <v>4.4878279587501808</v>
+      </c>
+      <c r="D28">
+        <v>-0.52013936345096734</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>99.5</v>
+      </c>
+      <c r="C29">
+        <v>4.2327837589224231</v>
+      </c>
+      <c r="D29">
+        <v>-0.50005003463671993</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>3.987761167674492</v>
+      </c>
+      <c r="D30">
+        <v>-0.48006119416162751</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>100.5</v>
+      </c>
+      <c r="C31">
+        <v>3.7526976773019953</v>
+      </c>
+      <c r="D31">
+        <v>-0.46022161732021483</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>101</v>
+      </c>
+      <c r="C32">
+        <v>3.5275068370385441</v>
+      </c>
+      <c r="D32">
+        <v>-0.44057824943889751</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>101.5</v>
+      </c>
+      <c r="C33">
+        <v>3.312079242895976</v>
+      </c>
+      <c r="D33">
+        <v>-0.4211759116969615</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>102</v>
+      </c>
+      <c r="C34">
+        <v>3.1062836665495652</v>
+      </c>
+      <c r="D34">
+        <v>-0.40205703945726845</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>102.5</v>
+      </c>
+      <c r="C35">
+        <v>2.9099683065654887</v>
+      </c>
+      <c r="D35">
+        <v>-0.38326145479934082</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>103</v>
+      </c>
+      <c r="C36">
+        <v>2.7229621445706016</v>
+      </c>
+      <c r="D36">
+        <v>-0.36482617434996428</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>103.5</v>
+      </c>
+      <c r="C37">
+        <v>2.5450763885632526</v>
+      </c>
+      <c r="D37">
+        <v>-0.34678525292799622</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>104</v>
+      </c>
+      <c r="C38">
+        <v>2.3761059854440703</v>
+      </c>
+      <c r="D38">
+        <v>-0.32916966297055916</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>104.5</v>
+      </c>
+      <c r="C39">
+        <v>2.2158311849914725</v>
+      </c>
+      <c r="D39">
+        <v>-0.3120072091957603</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>105</v>
+      </c>
+      <c r="C40">
+        <v>2.0640191378988462</v>
+      </c>
+      <c r="D40">
+        <v>-0.29532247748951701</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>105.5</v>
+      </c>
+      <c r="C41">
+        <v>1.9204255111019037</v>
+      </c>
+      <c r="D41">
+        <v>-0.2791368165864207</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>106</v>
+      </c>
+      <c r="C42">
+        <v>1.7847961044341965</v>
+      </c>
+      <c r="D42">
+        <v>-0.26346835075082736</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>106.5</v>
+      </c>
+      <c r="C43">
+        <v>1.6568684536239964</v>
+      </c>
+      <c r="D43">
+        <v>-0.24833202135697074</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>107</v>
+      </c>
+      <c r="C44">
+        <v>1.5363734057617506</v>
+      </c>
+      <c r="D44">
+        <v>-0.23373965501690736</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>107.5</v>
+      </c>
+      <c r="C45">
+        <v>1.4230366545934707</v>
+      </c>
+      <c r="D45">
+        <v>-0.21970005571234341</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>108</v>
+      </c>
+      <c r="C46">
+        <v>1.3165802243033653</v>
+      </c>
+      <c r="D46">
+        <v>-0.20621911824945555</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>108.5</v>
+      </c>
+      <c r="C47">
+        <v>1.2167238918134409</v>
+      </c>
+      <c r="D47">
+        <v>-0.19329996027231139</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>109</v>
+      </c>
+      <c r="C48">
+        <v>1.1231865390193008</v>
+      </c>
+      <c r="D48">
+        <v>-0.18094307003719762</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>109.5</v>
+      </c>
+      <c r="C49">
+        <v>1.0356874277797097</v>
+      </c>
+      <c r="D49">
+        <v>-0.16914646716308984</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>110</v>
+      </c>
+      <c r="C50">
+        <v>0.95394739185721988</v>
+      </c>
+      <c r="D50">
+        <v>-0.15790587362820607</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A63909C-82BF-46E9-986B-4B9C7D61A01A}">
+  <dimension ref="B2:S73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -524,41 +3054,2498 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2">
+        <f>1/250</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6">
+        <f>C6</f>
+        <v>3.987761167674492</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">_xlfn.TAKE(A_t,-1)</f>
+        <v>3.5654220162558659</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" cm="1">
+        <f t="array" ref="C6">_xll.BLACK.PUT.VALUE(f, sigma*SQRT(t), k)</f>
+        <v>3.987761167674492</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5">
+        <f ca="1">H21</f>
+        <v>7.5489189199517739</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">MAX(k - _xlfn.TAKE(S_t, -1), 0)</f>
+        <v>3.5815965961693621</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" cm="1">
-        <f t="array" ref="C7">_xll.BLACK.PUT.VALUE(f, sigma*SQRT(t), k)</f>
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <f ca="1">MAX(k - D21, 0)</f>
+        <v>5.8494909614180131</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5">
+        <f ca="1">C7-F6</f>
+        <v>-1.6994279585337608</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <f ca="1">J5-J6</f>
+        <v>-1.6174579913496245E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">_xll.MONTE.MEAN(C7)</f>
+        <v>1.7934331411931432</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="array" aca="1" ref="F8:G8" ca="1">_xll.MONTE.STDEV(F7)</f>
+        <v>-2.3853760448894601</v>
+      </c>
+      <c r="G8" s="4">
+        <f ca="1"/>
+        <v>0.66149664274624853</v>
+      </c>
+      <c r="J8">
+        <f t="array" aca="1" ref="J8:K8" ca="1">_xll.MONTE.STDEV(J7)</f>
+        <v>2.2719366157432513E-2</v>
+      </c>
+      <c r="K8">
+        <f ca="1"/>
+        <v>0.44006885711873439</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" cm="1">
+        <f t="array" aca="1" ref="C11:C73" ca="1">_xlfn.ANCHORARRAY(K11)</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D21" ca="1" si="0">f*EXP(sigma*C11 - sigma^2*B11/2)</f>
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <f ca="1">V_0 - F11*D11</f>
+        <v>51.993880583837246</v>
+      </c>
+      <c r="F11" s="2" cm="1">
+        <f t="array" aca="1" ref="F11" ca="1">_xll.BLACK.PUT.DELTA(D11, sigma*SQRT(t - B11), k)</f>
+        <v>-0.48006119416162751</v>
+      </c>
+      <c r="G11">
+        <f ca="1">E11+F11*D11</f>
         <v>3.987761167674492</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <f>1/250</f>
+      <c r="H11">
+        <f ca="1">-E11-F11*D11</f>
+        <v>-3.987761167674492</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11:J73">_xll.ARRAY.SEQUENCE(0, t, dt)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" aca="1" ref="K11:K73" ca="1">_xll.RANDOM.BROWNIAN(time)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" aca="1" ref="L11:L73" ca="1">f*EXP(sigma*B_t - sigma^2*(time)/2)</f>
+        <v>100</v>
+      </c>
+      <c r="M11" cm="1">
+        <f t="array" aca="1" ref="M11:M73" ca="1">_xlfn.VSTACK(_xlfn.DROP(SUMSCAN(V_0,-NABLA(N_t)*S_t),-1),0)</f>
+        <v>51.993880583837246</v>
+      </c>
+      <c r="N11" cm="1">
+        <f t="array" aca="1" ref="N11:N73" ca="1">_xlfn.VSTACK(_xlfn.DROP(_xlfn.MAP(S_t,time,_xlfn.LAMBDA(_xlpm.s_,_xlpm.t_, _xll.BLACK.PUT.DELTA(_xlpm.s_, sigma*SQRT(t - _xlpm.t_), k))),-1),0)</f>
+        <v>-0.48006119416162751</v>
+      </c>
+      <c r="O11" cm="1">
+        <f t="array" aca="1" ref="O11:O73" ca="1">M_t + N_t*S_t</f>
+        <v>3.987761167674492</v>
+      </c>
+      <c r="P11" cm="1">
+        <f t="array" aca="1" ref="P11:P73" ca="1">_xlfn.VSTACK(-O11, _xlfn.DROP(-NABLA(M_t)-NABLA(N_t)*S_t,1))</f>
+        <v>-3.987761167674492</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <f ca="1"/>
+        <v>-5.7462331473872717E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>98.807915673099671</v>
+      </c>
+      <c r="E12">
+        <f ca="1">E11 - (F12-F11)*D12</f>
+        <v>57.073947058239099</v>
+      </c>
+      <c r="F12" s="2" cm="1">
+        <f t="array" aca="1" ref="F12" ca="1">_xll.BLACK.PUT.DELTA(D12, sigma*SQRT(t - B12), k)</f>
+        <v>-0.53147475186897719</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G21" ca="1" si="1">E12+F12*D12</f>
+        <v>4.5600345931876305</v>
+      </c>
+      <c r="H12">
+        <f ca="1">-(E12-E11) - (F12-F11)*D12</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K12">
+        <f ca="1"/>
+        <v>-5.7462331473872717E-2</v>
+      </c>
+      <c r="L12">
+        <f ca="1"/>
+        <v>98.849423713760757</v>
+      </c>
+      <c r="M12">
+        <f ca="1"/>
+        <v>56.607495922537289</v>
+      </c>
+      <c r="N12">
+        <f ca="1"/>
+        <v>-0.52673435790266998</v>
+      </c>
+      <c r="O12">
+        <f ca="1"/>
+        <v>4.5401081936205543</v>
+      </c>
+      <c r="P12">
+        <f ca="1"/>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
+        <f ca="1"/>
+        <v>-0.12224089994283519</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>97.487289558143871</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E20" ca="1" si="2">E12 - (F13-F12)*D13</f>
+        <v>63.243117924719868</v>
+      </c>
+      <c r="F13" s="2" cm="1">
+        <f t="array" aca="1" ref="F13" ca="1">_xll.BLACK.PUT.DELTA(D13, sigma*SQRT(t - B13), k)</f>
+        <v>-0.59475654885443263</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.2619140299454514</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H21" ca="1" si="3">-(E13-E12) - (F13-F12)*D13</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K13">
+        <f ca="1"/>
+        <v>-0.12224089994283519</v>
+      </c>
+      <c r="L13">
+        <f ca="1"/>
+        <v>97.569213284520671</v>
+      </c>
+      <c r="M13">
+        <f ca="1"/>
+        <v>61.767554383802803</v>
+      </c>
+      <c r="N13">
+        <f ca="1"/>
+        <v>-0.57962049162825735</v>
+      </c>
+      <c r="O13">
+        <f ca="1"/>
+        <v>5.2144390120466326</v>
+      </c>
+      <c r="P13">
+        <f ca="1"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C14">
+        <f ca="1"/>
+        <v>-0.11850960960750312</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>97.51129954583925</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="2"/>
+        <v>63.981799678275664</v>
+      </c>
+      <c r="F14" s="2" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1">_xll.BLACK.PUT.DELTA(D14, sigma*SQRT(t - B14), k)</f>
+        <v>-0.60233189404002874</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.2476339325257157</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.2204460492503131E-15</v>
+      </c>
+      <c r="J14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K14">
+        <f ca="1"/>
+        <v>-0.11850960960750312</v>
+      </c>
+      <c r="L14">
+        <f ca="1"/>
+        <v>97.634241220256698</v>
+      </c>
+      <c r="M14">
+        <f ca="1"/>
+        <v>61.602305982816929</v>
+      </c>
+      <c r="N14">
+        <f ca="1"/>
+        <v>-0.57792796655794842</v>
+      </c>
+      <c r="O14">
+        <f ca="1"/>
+        <v>5.1767474879657485</v>
+      </c>
+      <c r="P14">
+        <f ca="1"/>
+        <v>3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <f ca="1"/>
+        <v>-0.16256774121376957</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>96.607525097580847</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="2"/>
+        <v>69.35362986733702</v>
+      </c>
+      <c r="F15" s="2" cm="1">
+        <f t="array" aca="1" ref="F15" ca="1">_xll.BLACK.PUT.DELTA(D15, sigma*SQRT(t - B15), k)</f>
+        <v>-0.65793657062847677</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.7920061077301739</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K15">
+        <f ca="1"/>
+        <v>-0.16256774121376957</v>
+      </c>
+      <c r="L15">
+        <f ca="1"/>
+        <v>96.769962148662501</v>
+      </c>
+      <c r="M15">
+        <f ca="1"/>
+        <v>65.138952331464935</v>
+      </c>
+      <c r="N15">
+        <f ca="1"/>
+        <v>-0.61447491015615763</v>
+      </c>
+      <c r="O15">
+        <f ca="1"/>
+        <v>5.6762385343507731</v>
+      </c>
+      <c r="P15">
+        <f ca="1"/>
+        <v>2.2204460492503131E-15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0.125</v>
+      </c>
+      <c r="C16">
+        <f ca="1"/>
+        <v>-0.19998637967441818</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>95.839307624253777</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="2"/>
+        <v>74.744256465652242</v>
+      </c>
+      <c r="F16" s="2" cm="1">
+        <f t="array" aca="1" ref="F16" ca="1">_xll.BLACK.PUT.DELTA(D16, sigma*SQRT(t - B16), k)</f>
+        <v>-0.71418308087508287</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.2974444776278631</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.02</v>
+      </c>
+      <c r="K16">
+        <f ca="1"/>
+        <v>-0.19998637967441818</v>
+      </c>
+      <c r="L16">
+        <f ca="1"/>
+        <v>96.040781643943689</v>
+      </c>
+      <c r="M16">
+        <f ca="1"/>
+        <v>68.119088773416038</v>
+      </c>
+      <c r="N16">
+        <f ca="1"/>
+        <v>-0.64550481631622503</v>
+      </c>
+      <c r="O16">
+        <f ca="1"/>
+        <v>6.124301659475492</v>
+      </c>
+      <c r="P16">
+        <f ca="1"/>
+        <v>-6.6613381477509392E-15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0.15</v>
+      </c>
+      <c r="C17">
+        <f ca="1"/>
+        <v>-0.14921501863568948</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>96.76904714612246</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="2"/>
+        <v>72.124270100165987</v>
+      </c>
+      <c r="F17" s="2" cm="1">
+        <f t="array" aca="1" ref="F17" ca="1">_xll.BLACK.PUT.DELTA(D17, sigma*SQRT(t - B17), k)</f>
+        <v>-0.6871084486165876</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.6334402414883584</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K17">
+        <f ca="1"/>
+        <v>-0.14921501863568948</v>
+      </c>
+      <c r="L17">
+        <f ca="1"/>
+        <v>97.01321266427118</v>
+      </c>
+      <c r="M17">
+        <f ca="1"/>
+        <v>64.379012640638024</v>
+      </c>
+      <c r="N17">
+        <f ca="1"/>
+        <v>-0.60695258172812716</v>
+      </c>
+      <c r="O17">
+        <f ca="1"/>
+        <v>5.4965927523187901</v>
+      </c>
+      <c r="P17">
+        <f ca="1"/>
+        <v>5.3290705182007514E-15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C18">
+        <f ca="1"/>
+        <v>-0.14952733481861297</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>96.714633418958542</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="2"/>
+        <v>75.29461842707687</v>
+      </c>
+      <c r="F18" s="2" cm="1">
+        <f t="array" aca="1" ref="F18" ca="1">_xll.BLACK.PUT.DELTA(D18, sigma*SQRT(t - B18), k)</f>
+        <v>-0.71988888953680741</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.6708283731434079</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.9968028886505635E-15</v>
+      </c>
+      <c r="J18">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K18">
+        <f ca="1"/>
+        <v>-0.14952733481861297</v>
+      </c>
+      <c r="L18">
+        <f ca="1"/>
+        <v>96.999392832435916</v>
+      </c>
+      <c r="M18">
+        <f ca="1"/>
+        <v>64.557730727416327</v>
+      </c>
+      <c r="N18">
+        <f ca="1"/>
+        <v>-0.60879504776383764</v>
+      </c>
+      <c r="O18">
+        <f ca="1"/>
+        <v>5.5049807349302569</v>
+      </c>
+      <c r="P18">
+        <f ca="1"/>
+        <v>-2.1094237467877974E-15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19">
+        <f ca="1"/>
+        <v>-0.27749287968243952</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>94.223687539542865</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="2"/>
+        <v>92.696411983071215</v>
+      </c>
+      <c r="F19" s="2" cm="1">
+        <f t="array" aca="1" ref="F19" ca="1">_xll.BLACK.PUT.DELTA(D19, sigma*SQRT(t - B19), k)</f>
+        <v>-0.90457486405559639</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4640326361722344</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K19">
+        <f ca="1"/>
+        <v>-0.27749287968243952</v>
+      </c>
+      <c r="L19">
+        <f ca="1"/>
+        <v>94.540811599746604</v>
+      </c>
+      <c r="M19">
+        <f ca="1"/>
+        <v>74.161410108878982</v>
+      </c>
+      <c r="N19">
+        <f ca="1"/>
+        <v>-0.71037741435194501</v>
+      </c>
+      <c r="O19">
+        <f ca="1"/>
+        <v>7.0017528139166245</v>
+      </c>
+      <c r="P19">
+        <f ca="1"/>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+      <c r="S19" cm="1">
+        <f t="array" aca="1" ref="S19" ca="1">_xll.BLACK.PUT.DELTA(L19,sigma*SQRT($J$21-J19),k)</f>
+        <v>-0.99912387607123909</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C20">
+        <f ca="1"/>
+        <v>-0.26181651726855243</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>94.472320093917034</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="2"/>
+        <v>98.183383453162534</v>
+      </c>
+      <c r="F20" s="2" cm="1">
+        <f t="array" aca="1" ref="F20" ca="1">_xll.BLACK.PUT.DELTA(D20, sigma*SQRT(t - B20), k)</f>
+        <v>-0.96265506643272225</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.2391258770994256</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="K20">
+        <f ca="1"/>
+        <v>-0.26181651726855243</v>
+      </c>
+      <c r="L20">
+        <f ca="1"/>
+        <v>94.830101244236218</v>
+      </c>
+      <c r="M20">
+        <f ca="1"/>
+        <v>73.279026256302956</v>
+      </c>
+      <c r="N20">
+        <f ca="1"/>
+        <v>-0.70107252232927975</v>
+      </c>
+      <c r="O20">
+        <f ca="1"/>
+        <v>6.7962479842653067</v>
+      </c>
+      <c r="P20">
+        <f ca="1"/>
+        <v>-6.6613381477509392E-15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0.25</v>
+      </c>
+      <c r="C21">
+        <f ca="1"/>
+        <v>-0.27637762111578673</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>94.150509038581987</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.5489189199517739</v>
+      </c>
+      <c r="J21">
+        <v>0.04</v>
+      </c>
+      <c r="K21">
+        <f ca="1"/>
+        <v>-0.27637762111578673</v>
+      </c>
+      <c r="L21">
+        <f ca="1"/>
+        <v>94.546772747825969</v>
+      </c>
+      <c r="M21">
+        <f ca="1"/>
+        <v>74.530204657433373</v>
+      </c>
+      <c r="N21">
+        <f ca="1"/>
+        <v>-0.71430595552606946</v>
+      </c>
+      <c r="O21">
+        <f ca="1"/>
+        <v>6.994881807891403</v>
+      </c>
+      <c r="P21">
+        <f ca="1"/>
+        <v>-4.2188474935755949E-15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <f ca="1"/>
+        <v>-0.24585392729097813</v>
+      </c>
+      <c r="J22">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K22">
+        <f ca="1"/>
+        <v>-0.24585392729097813</v>
+      </c>
+      <c r="L22">
+        <f ca="1"/>
+        <v>95.118111710520864</v>
+      </c>
+      <c r="M22">
+        <f ca="1"/>
+        <v>72.55760033286488</v>
+      </c>
+      <c r="N22">
+        <f ca="1"/>
+        <v>-0.6935674832299431</v>
+      </c>
+      <c r="O22">
+        <f ca="1"/>
+        <v>6.5867709842143398</v>
+      </c>
+      <c r="P22">
+        <f ca="1"/>
+        <v>4.8849813083506888E-15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <f ca="1"/>
+        <v>-0.23376943882314177</v>
+      </c>
+      <c r="J23">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K23">
+        <f ca="1"/>
+        <v>-0.23376943882314177</v>
+      </c>
+      <c r="L23">
+        <f ca="1"/>
+        <v>95.340652933152114</v>
+      </c>
+      <c r="M23">
+        <f ca="1"/>
+        <v>71.880805221464414</v>
+      </c>
+      <c r="N23">
+        <f ca="1"/>
+        <v>-0.68646877884121815</v>
+      </c>
+      <c r="O23">
+        <f ca="1"/>
+        <v>6.432423628519075</v>
+      </c>
+      <c r="P23">
+        <f ca="1"/>
+        <v>-3.4416913763379853E-15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <f ca="1"/>
+        <v>-9.3589527338048817E-2</v>
+      </c>
+      <c r="J24">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="K24">
+        <f ca="1"/>
+        <v>-9.3589527338048817E-2</v>
+      </c>
+      <c r="L24">
+        <f ca="1"/>
+        <v>98.043600277314297</v>
+      </c>
+      <c r="M24">
+        <f ca="1"/>
+        <v>60.505745363163108</v>
+      </c>
+      <c r="N24">
+        <f ca="1"/>
+        <v>-0.57044835704798347</v>
+      </c>
+      <c r="O24">
+        <f ca="1"/>
+        <v>4.5769346658999481</v>
+      </c>
+      <c r="P24">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <f ca="1"/>
+        <v>-0.22304670029667428</v>
+      </c>
+      <c r="J25">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K25">
+        <f ca="1"/>
+        <v>-0.22304670029667428</v>
+      </c>
+      <c r="L25">
+        <f ca="1"/>
+        <v>95.530048877635082</v>
+      </c>
+      <c r="M25">
+        <f ca="1"/>
+        <v>71.222608117041943</v>
+      </c>
+      <c r="N25">
+        <f ca="1"/>
+        <v>-0.68263151700434566</v>
+      </c>
+      <c r="O25">
+        <f ca="1"/>
+        <v>6.0107859322026229</v>
+      </c>
+      <c r="P25">
+        <f ca="1"/>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <f ca="1"/>
+        <v>-0.25198960742786641</v>
+      </c>
+      <c r="J26">
+        <v>0.06</v>
+      </c>
+      <c r="K26">
+        <f ca="1"/>
+        <v>-0.25198960742786641</v>
+      </c>
+      <c r="L26">
+        <f ca="1"/>
+        <v>94.97106483312956</v>
+      </c>
+      <c r="M26">
+        <f ca="1"/>
+        <v>73.655631197663539</v>
+      </c>
+      <c r="N26">
+        <f ca="1"/>
+        <v>-0.70825008919679799</v>
+      </c>
+      <c r="O26">
+        <f ca="1"/>
+        <v>6.3923660584846402</v>
+      </c>
+      <c r="P26">
+        <f ca="1"/>
+        <v>5.773159728050814E-15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <f ca="1"/>
+        <v>-0.27242852807132728</v>
+      </c>
+      <c r="J27">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K27">
+        <f ca="1"/>
+        <v>-0.27242852807132728</v>
+      </c>
+      <c r="L27">
+        <f ca="1"/>
+        <v>94.57606963556006</v>
+      </c>
+      <c r="M27">
+        <f ca="1"/>
+        <v>75.417150623847405</v>
+      </c>
+      <c r="N27">
+        <f ca="1"/>
+        <v>-0.72687551350309143</v>
+      </c>
+      <c r="O27">
+        <f ca="1"/>
+        <v>6.6721214423955502</v>
+      </c>
+      <c r="P27">
+        <f ca="1"/>
+        <v>-5.773159728050814E-15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <f ca="1"/>
+        <v>-0.27905992563562132</v>
+      </c>
+      <c r="J28">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K28">
+        <f ca="1"/>
+        <v>-0.27905992563562132</v>
+      </c>
+      <c r="L28">
+        <f ca="1"/>
+        <v>94.443162720464088</v>
+      </c>
+      <c r="M28">
+        <f ca="1"/>
+        <v>76.165843240114185</v>
+      </c>
+      <c r="N28">
+        <f ca="1"/>
+        <v>-0.73480295467194323</v>
+      </c>
+      <c r="O28">
+        <f ca="1"/>
+        <v>6.768728224554053</v>
+      </c>
+      <c r="P28">
+        <f ca="1"/>
+        <v>-3.3306690738754696E-15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <f ca="1"/>
+        <v>-0.30440723285882931</v>
+      </c>
+      <c r="J29">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="K29">
+        <f ca="1"/>
+        <v>-0.30440723285882931</v>
+      </c>
+      <c r="L29">
+        <f ca="1"/>
+        <v>93.958081321212774</v>
+      </c>
+      <c r="M29">
+        <f ca="1"/>
+        <v>78.242759485910156</v>
+      </c>
+      <c r="N29">
+        <f ca="1"/>
+        <v>-0.75690766580046931</v>
+      </c>
+      <c r="O29">
+        <f ca="1"/>
+        <v>7.125167469980326</v>
+      </c>
+      <c r="P29">
+        <f ca="1"/>
+        <v>-8.8817841970012523E-16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <f ca="1"/>
+        <v>-0.37659308032884942</v>
+      </c>
+      <c r="J30">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K30">
+        <f ca="1"/>
+        <v>-0.37659308032884942</v>
+      </c>
+      <c r="L30">
+        <f ca="1"/>
+        <v>92.603928941167894</v>
+      </c>
+      <c r="M30">
+        <f ca="1"/>
+        <v>83.195050418128289</v>
+      </c>
+      <c r="N30">
+        <f ca="1"/>
+        <v>-0.81038586039590987</v>
+      </c>
+      <c r="O30">
+        <f ca="1"/>
+        <v>8.1501357870982503</v>
+      </c>
+      <c r="P30">
+        <f ca="1"/>
+        <v>-6.2172489379008766E-15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <f ca="1"/>
+        <v>-0.33325892155595871</v>
+      </c>
+      <c r="J31">
+        <v>0.08</v>
+      </c>
+      <c r="K31">
+        <f ca="1"/>
+        <v>-0.33325892155595871</v>
+      </c>
+      <c r="L31">
+        <f ca="1"/>
+        <v>93.402527105879486</v>
+      </c>
+      <c r="M31">
+        <f ca="1"/>
+        <v>80.748862260840198</v>
+      </c>
+      <c r="N31">
+        <f ca="1"/>
+        <v>-0.78419611764392705</v>
+      </c>
+      <c r="O31">
+        <f ca="1"/>
+        <v>7.502963126277848</v>
+      </c>
+      <c r="P31">
+        <f ca="1"/>
+        <v>4.4408920985006262E-15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <f ca="1"/>
+        <v>-0.34603557452374034</v>
+      </c>
+      <c r="J32">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K32">
+        <f ca="1"/>
+        <v>-0.34603557452374034</v>
+      </c>
+      <c r="L32">
+        <f ca="1"/>
+        <v>93.156704622706215</v>
+      </c>
+      <c r="M32">
+        <f ca="1"/>
+        <v>81.895058785218268</v>
+      </c>
+      <c r="N32">
+        <f ca="1"/>
+        <v>-0.79650007932892097</v>
+      </c>
+      <c r="O32">
+        <f ca="1"/>
+        <v>7.6957361632119046</v>
+      </c>
+      <c r="P32">
+        <f ca="1"/>
+        <v>3.9968028886505635E-15</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <f ca="1"/>
+        <v>-0.29684982655775161</v>
+      </c>
+      <c r="J33">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K33">
+        <f ca="1"/>
+        <v>-0.29684982655775161</v>
+      </c>
+      <c r="L33">
+        <f ca="1"/>
+        <v>94.070097333590851</v>
+      </c>
+      <c r="M33">
+        <f ca="1"/>
+        <v>78.83531436509962</v>
+      </c>
+      <c r="N33">
+        <f ca="1"/>
+        <v>-0.76397386210530949</v>
+      </c>
+      <c r="O33">
+        <f ca="1"/>
+        <v>6.9682187965338471</v>
+      </c>
+      <c r="P33">
+        <f ca="1"/>
+        <v>-3.9968028886505635E-15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <f ca="1"/>
+        <v>-0.30769326176445067</v>
+      </c>
+      <c r="J34">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="K34">
+        <f ca="1"/>
+        <v>-0.30769326176445067</v>
+      </c>
+      <c r="L34">
+        <f ca="1"/>
+        <v>93.858800783682781</v>
+      </c>
+      <c r="M34">
+        <f ca="1"/>
+        <v>79.928361747160125</v>
+      </c>
+      <c r="N34">
+        <f ca="1"/>
+        <v>-0.77561951891036141</v>
+      </c>
+      <c r="O34">
+        <f ca="1"/>
+        <v>7.12964383781663</v>
+      </c>
+      <c r="P34">
+        <f ca="1"/>
+        <v>3.3306690738754696E-15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <f ca="1"/>
+        <v>-0.37171050010367634</v>
+      </c>
+      <c r="J35">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K35">
+        <f ca="1"/>
+        <v>-0.37171050010367634</v>
+      </c>
+      <c r="L35">
+        <f ca="1"/>
+        <v>92.657331984412224</v>
+      </c>
+      <c r="M35">
+        <f ca="1"/>
+        <v>84.45211046548701</v>
+      </c>
+      <c r="N35">
+        <f ca="1"/>
+        <v>-0.82444186919223572</v>
+      </c>
+      <c r="O35">
+        <f ca="1"/>
+        <v>8.0615264898926711</v>
+      </c>
+      <c r="P35">
+        <f ca="1"/>
+        <v>4.4408920985006262E-15</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <f ca="1"/>
+        <v>-0.28726441255383278</v>
+      </c>
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="K36">
+        <f ca="1"/>
+        <v>-0.28726441255383278</v>
+      </c>
+      <c r="L36">
+        <f ca="1"/>
+        <v>94.227993040976457</v>
+      </c>
+      <c r="M36">
+        <f ca="1"/>
+        <v>79.033738904921265</v>
+      </c>
+      <c r="N36">
+        <f ca="1"/>
+        <v>-0.76693908911912645</v>
+      </c>
+      <c r="O36">
+        <f ca="1"/>
+        <v>6.7666077525513941</v>
+      </c>
+      <c r="P36">
+        <f ca="1"/>
+        <v>5.3290705182007514E-15</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <f ca="1"/>
+        <v>-0.35025956360869043</v>
+      </c>
+      <c r="J37">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="K37">
+        <f ca="1"/>
+        <v>-0.35025956360869043</v>
+      </c>
+      <c r="L37">
+        <f ca="1"/>
+        <v>93.040815504379026</v>
+      </c>
+      <c r="M37">
+        <f ca="1"/>
+        <v>83.733052997070871</v>
+      </c>
+      <c r="N37">
+        <f ca="1"/>
+        <v>-0.81744718136524863</v>
+      </c>
+      <c r="O37">
+        <f ca="1"/>
+        <v>7.6771006110921149</v>
+      </c>
+      <c r="P37">
+        <f ca="1"/>
+        <v>4.4408920985006262E-15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <f ca="1"/>
+        <v>-0.38372640809910502</v>
+      </c>
+      <c r="J38">
+        <v>0.108</v>
+      </c>
+      <c r="K38">
+        <f ca="1"/>
+        <v>-0.38372640809910502</v>
+      </c>
+      <c r="L38">
+        <f ca="1"/>
+        <v>92.4127452155127</v>
+      </c>
+      <c r="M38">
+        <f ca="1"/>
+        <v>86.148074525501897</v>
+      </c>
+      <c r="N38">
+        <f ca="1"/>
+        <v>-0.84358017333295865</v>
+      </c>
+      <c r="O38">
+        <f ca="1"/>
+        <v>8.1905148984251497</v>
+      </c>
+      <c r="P38">
+        <f ca="1"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <f ca="1"/>
+        <v>-0.34647470964705213</v>
+      </c>
+      <c r="J39">
+        <v>0.112</v>
+      </c>
+      <c r="K39">
+        <f ca="1"/>
+        <v>-0.34647470964705213</v>
+      </c>
+      <c r="L39">
+        <f ca="1"/>
+        <v>93.09637473569866</v>
+      </c>
+      <c r="M39">
+        <f ca="1"/>
+        <v>84.203623678721954</v>
+      </c>
+      <c r="N39">
+        <f ca="1"/>
+        <v>-0.82269374405684292</v>
+      </c>
+      <c r="O39">
+        <f ca="1"/>
+        <v>7.6138185892911423</v>
+      </c>
+      <c r="P39">
+        <f ca="1"/>
+        <v>6.8833827526759706E-15</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <f ca="1"/>
+        <v>-0.348919802950858</v>
+      </c>
+      <c r="J40">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K40">
+        <f ca="1"/>
+        <v>-0.348919802950858</v>
+      </c>
+      <c r="L40">
+        <f ca="1"/>
+        <v>93.043416229842791</v>
+      </c>
+      <c r="M40">
+        <f ca="1"/>
+        <v>84.743969327271202</v>
+      </c>
+      <c r="N40">
+        <f ca="1"/>
+        <v>-0.82850120116067982</v>
+      </c>
+      <c r="O40">
+        <f ca="1"/>
+        <v>7.657387220753364</v>
+      </c>
+      <c r="P40">
+        <f ca="1"/>
+        <v>5.5511151231257827E-15</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <f ca="1"/>
+        <v>-0.33200941542744944</v>
+      </c>
+      <c r="J41">
+        <v>0.12</v>
+      </c>
+      <c r="K41">
+        <f ca="1"/>
+        <v>-0.33200941542744944</v>
+      </c>
+      <c r="L41">
+        <f ca="1"/>
+        <v>93.351160619818032</v>
+      </c>
+      <c r="M41">
+        <f ca="1"/>
+        <v>84.016180025706419</v>
+      </c>
+      <c r="N41">
+        <f ca="1"/>
+        <v>-0.82070494778008418</v>
+      </c>
+      <c r="O41">
+        <f ca="1"/>
+        <v>7.4024206240084141</v>
+      </c>
+      <c r="P41">
+        <f ca="1"/>
+        <v>3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <f ca="1"/>
+        <v>-0.30759438424939078</v>
+      </c>
+      <c r="J42">
+        <v>0.124</v>
+      </c>
+      <c r="K42">
+        <f ca="1"/>
+        <v>-0.30759438424939078</v>
+      </c>
+      <c r="L42">
+        <f ca="1"/>
+        <v>93.800605305175068</v>
+      </c>
+      <c r="M42">
+        <f ca="1"/>
+        <v>82.707287817773405</v>
+      </c>
+      <c r="N42">
+        <f ca="1"/>
+        <v>-0.806750963115757</v>
+      </c>
+      <c r="O42">
+        <f ca="1"/>
+        <v>7.0335591469824266</v>
+      </c>
+      <c r="P42">
+        <f ca="1"/>
+        <v>-6.4392935428259079E-15</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <f ca="1"/>
+        <v>-0.22132718419161973</v>
+      </c>
+      <c r="J43">
+        <v>0.128</v>
+      </c>
+      <c r="K43">
+        <f ca="1"/>
+        <v>-0.22132718419161973</v>
+      </c>
+      <c r="L43">
+        <f ca="1"/>
+        <v>95.42539606404732</v>
+      </c>
+      <c r="M43">
+        <f ca="1"/>
+        <v>76.090235501126173</v>
+      </c>
+      <c r="N43">
+        <f ca="1"/>
+        <v>-0.73740828716599183</v>
+      </c>
+      <c r="O43">
+        <f ca="1"/>
+        <v>5.7227576374006617</v>
+      </c>
+      <c r="P43">
+        <f ca="1"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <f ca="1"/>
+        <v>-0.3312022368848313</v>
+      </c>
+      <c r="J44">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="K44">
+        <f ca="1"/>
+        <v>-0.3312022368848313</v>
+      </c>
+      <c r="L44">
+        <f ca="1"/>
+        <v>93.343826840115824</v>
+      </c>
+      <c r="M44">
+        <f ca="1"/>
+        <v>85.063385713758493</v>
+      </c>
+      <c r="N44">
+        <f ca="1"/>
+        <v>-0.83353837435431755</v>
+      </c>
+      <c r="O44">
+        <f ca="1"/>
+        <v>7.2577240334374409</v>
+      </c>
+      <c r="P44">
+        <f ca="1"/>
+        <v>-7.1054273576010019E-15</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <f ca="1"/>
+        <v>-0.46587678117013787</v>
+      </c>
+      <c r="J45">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K45">
+        <f ca="1"/>
+        <v>-0.46587678117013787</v>
+      </c>
+      <c r="L45">
+        <f ca="1"/>
+        <v>90.855908613875641</v>
+      </c>
+      <c r="M45">
+        <f ca="1"/>
+        <v>92.662355520248468</v>
+      </c>
+      <c r="N45">
+        <f ca="1"/>
+        <v>-0.91717597065842238</v>
+      </c>
+      <c r="O45">
+        <f ca="1"/>
+        <v>9.3314993472641561</v>
+      </c>
+      <c r="P45">
+        <f ca="1"/>
+        <v>-3.5527136788005009E-15</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <f ca="1"/>
+        <v>-0.56694942095414791</v>
+      </c>
+      <c r="J46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K46">
+        <f ca="1"/>
+        <v>-0.56694942095414791</v>
+      </c>
+      <c r="L46">
+        <f ca="1"/>
+        <v>89.030615218271691</v>
+      </c>
+      <c r="M46">
+        <f ca="1"/>
+        <v>96.220718167740301</v>
+      </c>
+      <c r="N46">
+        <f ca="1"/>
+        <v>-0.9571438248484444</v>
+      </c>
+      <c r="O46">
+        <f ca="1"/>
+        <v>11.00561458911362</v>
+      </c>
+      <c r="P46">
+        <f ca="1"/>
+        <v>5.3290705182007514E-15</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <f ca="1"/>
+        <v>-0.51581383340586306</v>
+      </c>
+      <c r="J47">
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="K47">
+        <f ca="1"/>
+        <v>-0.51581383340586306</v>
+      </c>
+      <c r="L47">
+        <f ca="1"/>
+        <v>89.938618349126813</v>
+      </c>
+      <c r="M47">
+        <f ca="1"/>
+        <v>95.106349910169399</v>
+      </c>
+      <c r="N47">
+        <f ca="1"/>
+        <v>-0.94475350489439403</v>
+      </c>
+      <c r="O47">
+        <f ca="1"/>
+        <v>10.136524999472584</v>
+      </c>
+      <c r="P47">
+        <f ca="1"/>
+        <v>-5.1070259132757201E-15</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <f ca="1"/>
+        <v>-0.48255722376310484</v>
+      </c>
+      <c r="J48">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K48">
+        <f ca="1"/>
+        <v>-0.48255722376310484</v>
+      </c>
+      <c r="L48">
+        <f ca="1"/>
+        <v>90.531580101606735</v>
+      </c>
+      <c r="M48">
+        <f ca="1"/>
+        <v>94.351351721434952</v>
+      </c>
+      <c r="N48">
+        <f ca="1"/>
+        <v>-0.93641389359094518</v>
+      </c>
+      <c r="O48">
+        <f ca="1"/>
+        <v>9.5763223055488567</v>
+      </c>
+      <c r="P48">
+        <f ca="1"/>
+        <v>3.1086244689504383E-15</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <f ca="1"/>
+        <v>-0.56280848901304892</v>
+      </c>
+      <c r="J49">
+        <v>0.152</v>
+      </c>
+      <c r="K49">
+        <f ca="1"/>
+        <v>-0.56280848901304892</v>
+      </c>
+      <c r="L49">
+        <f ca="1"/>
+        <v>89.082997217957328</v>
+      </c>
+      <c r="M49">
+        <f ca="1"/>
+        <v>96.919609883545235</v>
+      </c>
+      <c r="N49">
+        <f ca="1"/>
+        <v>-0.96524384141843667</v>
+      </c>
+      <c r="O49">
+        <f ca="1"/>
+        <v>10.932795443816204</v>
+      </c>
+      <c r="P49">
+        <f ca="1"/>
+        <v>-3.5527136788005009E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <f ca="1"/>
+        <v>-0.50911028775681999</v>
+      </c>
+      <c r="J50">
+        <v>0.156</v>
+      </c>
+      <c r="K50">
+        <f ca="1"/>
+        <v>-0.50911028775681999</v>
+      </c>
+      <c r="L50">
+        <f ca="1"/>
+        <v>90.037669110504254</v>
+      </c>
+      <c r="M50">
+        <f ca="1"/>
+        <v>95.870768330182614</v>
+      </c>
+      <c r="N50">
+        <f ca="1"/>
+        <v>-0.95359492198588924</v>
+      </c>
+      <c r="O50">
+        <f ca="1"/>
+        <v>10.011304278959997</v>
+      </c>
+      <c r="P50">
+        <f ca="1"/>
+        <v>-6.8833827526759706E-15</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <f ca="1"/>
+        <v>-0.52288430523305762</v>
+      </c>
+      <c r="J51">
+        <v>0.16</v>
+      </c>
+      <c r="K51">
+        <f ca="1"/>
+        <v>-0.52288430523305762</v>
+      </c>
+      <c r="L51">
+        <f ca="1"/>
+        <v>89.782791446138162</v>
+      </c>
+      <c r="M51">
+        <f ca="1"/>
+        <v>96.564854013592154</v>
+      </c>
+      <c r="N51">
+        <f ca="1"/>
+        <v>-0.96132564267556542</v>
+      </c>
+      <c r="O51">
+        <f ca="1"/>
+        <v>10.25435432542713</v>
+      </c>
+      <c r="P51">
+        <f ca="1"/>
+        <v>1.3322676295501878E-15</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <f ca="1"/>
+        <v>-0.5374511732809153</v>
+      </c>
+      <c r="J52">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K52">
+        <f ca="1"/>
+        <v>-0.5374511732809153</v>
+      </c>
+      <c r="L52">
+        <f ca="1"/>
+        <v>89.514439846303702</v>
+      </c>
+      <c r="M52">
+        <f ca="1"/>
+        <v>97.207694014433841</v>
+      </c>
+      <c r="N52">
+        <f ca="1"/>
+        <v>-0.96850705387520475</v>
+      </c>
+      <c r="O52">
+        <f ca="1"/>
+        <v>10.512327599601008</v>
+      </c>
+      <c r="P52">
+        <f ca="1"/>
+        <v>-5.5511151231257827E-16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <f ca="1"/>
+        <v>-0.63088134363429105</v>
+      </c>
+      <c r="J53">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K53">
+        <f ca="1"/>
+        <v>-0.63088134363429105</v>
+      </c>
+      <c r="L53">
+        <f ca="1"/>
+        <v>87.850272566303786</v>
+      </c>
+      <c r="M53">
+        <f ca="1"/>
+        <v>98.85259699381335</v>
+      </c>
+      <c r="N53">
+        <f ca="1"/>
+        <v>-0.9872309909937611</v>
+      </c>
+      <c r="O53">
+        <f ca="1"/>
+        <v>12.124085349109237</v>
+      </c>
+      <c r="P53">
+        <f ca="1"/>
+        <v>-6.6613381477509392E-16</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <f ca="1"/>
+        <v>-0.57718042715429074</v>
+      </c>
+      <c r="J54">
+        <v>0.17200000000000001</v>
+      </c>
+      <c r="K54">
+        <f ca="1"/>
+        <v>-0.57718042715429074</v>
+      </c>
+      <c r="L54">
+        <f ca="1"/>
+        <v>88.791781989940858</v>
+      </c>
+      <c r="M54">
+        <f ca="1"/>
+        <v>98.401317441876103</v>
+      </c>
+      <c r="N54">
+        <f ca="1"/>
+        <v>-0.98214854370164151</v>
+      </c>
+      <c r="O54">
+        <f ca="1"/>
+        <v>11.194598067782053</v>
+      </c>
+      <c r="P54">
+        <f ca="1"/>
+        <v>-9.9920072216264089E-16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <f ca="1"/>
+        <v>-0.58629812730898301</v>
+      </c>
+      <c r="J55">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="K55">
+        <f ca="1"/>
+        <v>-0.58629812730898301</v>
+      </c>
+      <c r="L55">
+        <f ca="1"/>
+        <v>88.622924043422572</v>
+      </c>
+      <c r="M55">
+        <f ca="1"/>
+        <v>98.728292186428888</v>
+      </c>
+      <c r="N55">
+        <f ca="1"/>
+        <v>-0.9858380489631986</v>
+      </c>
+      <c r="O55">
+        <f ca="1"/>
+        <v>11.360441654047435</v>
+      </c>
+      <c r="P55">
+        <f ca="1"/>
+        <v>-3.4972025275692431E-15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f ca="1"/>
+        <v>-0.59828999102452241</v>
+      </c>
+      <c r="J56">
+        <v>0.18</v>
+      </c>
+      <c r="K56">
+        <f ca="1"/>
+        <v>-0.59828999102452241</v>
+      </c>
+      <c r="L56">
+        <f ca="1"/>
+        <v>88.403555355034086</v>
+      </c>
+      <c r="M56">
+        <f ca="1"/>
+        <v>99.039446853400875</v>
+      </c>
+      <c r="N56">
+        <f ca="1"/>
+        <v>-0.98935775657815106</v>
+      </c>
+      <c r="O56">
+        <f ca="1"/>
+        <v>11.576703653811961</v>
+      </c>
+      <c r="P56">
+        <f ca="1"/>
+        <v>-2.2759572004815709E-15</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <f ca="1"/>
+        <v>-0.5288186887017432</v>
+      </c>
+      <c r="J57">
+        <v>0.184</v>
+      </c>
+      <c r="K57">
+        <f ca="1"/>
+        <v>-0.5288186887017432</v>
+      </c>
+      <c r="L57">
+        <f ca="1"/>
+        <v>89.633259264055226</v>
+      </c>
+      <c r="M57">
+        <f ca="1"/>
+        <v>98.40919190417145</v>
+      </c>
+      <c r="N57">
+        <f ca="1"/>
+        <v>-0.98232627122991978</v>
+      </c>
+      <c r="O57">
+        <f ca="1"/>
+        <v>10.360086553127417</v>
+      </c>
+      <c r="P57">
+        <f ca="1"/>
+        <v>4.6629367034256575E-15</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <f ca="1"/>
+        <v>-0.51227315439683441</v>
+      </c>
+      <c r="J58">
+        <v>0.188</v>
+      </c>
+      <c r="K58">
+        <f ca="1"/>
+        <v>-0.51227315439683441</v>
+      </c>
+      <c r="L58">
+        <f ca="1"/>
+        <v>89.923162448793548</v>
+      </c>
+      <c r="M58">
+        <f ca="1"/>
+        <v>98.423192559854797</v>
+      </c>
+      <c r="N58">
+        <f ca="1"/>
+        <v>-0.98248196699619483</v>
+      </c>
+      <c r="O58">
+        <f ca="1"/>
+        <v>10.075307038645747</v>
+      </c>
+      <c r="P58">
+        <f ca="1"/>
+        <v>-5.8304056027580486E-15</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <f ca="1"/>
+        <v>-0.49336676488424697</v>
+      </c>
+      <c r="J59">
+        <v>0.192</v>
+      </c>
+      <c r="K59">
+        <f ca="1"/>
+        <v>-0.49336676488424697</v>
+      </c>
+      <c r="L59">
+        <f ca="1"/>
+        <v>90.256609772825257</v>
+      </c>
+      <c r="M59">
+        <f ca="1"/>
+        <v>98.408664219523615</v>
+      </c>
+      <c r="N59">
+        <f ca="1"/>
+        <v>-0.98232099994494237</v>
+      </c>
+      <c r="O59">
+        <f ca="1"/>
+        <v>9.7477010558414463</v>
+      </c>
+      <c r="P59">
+        <f ca="1"/>
+        <v>6.7047062346503594E-15</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <f ca="1"/>
+        <v>-0.41816690737873102</v>
+      </c>
+      <c r="J60">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="K60">
+        <f ca="1"/>
+        <v>-0.41816690737873102</v>
+      </c>
+      <c r="L60">
+        <f ca="1"/>
+        <v>91.616996384079954</v>
+      </c>
+      <c r="M60">
+        <f ca="1"/>
+        <v>97.151626765397168</v>
+      </c>
+      <c r="N60">
+        <f ca="1"/>
+        <v>-0.96860042948597813</v>
+      </c>
+      <c r="O60">
+        <f ca="1"/>
+        <v>8.411364719562016</v>
+      </c>
+      <c r="P60">
+        <f ca="1"/>
+        <v>5.773159728050814E-15</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <f ca="1"/>
+        <v>-0.2994315317014945</v>
+      </c>
+      <c r="J61">
+        <v>0.2</v>
+      </c>
+      <c r="K61">
+        <f ca="1"/>
+        <v>-0.2994315317014945</v>
+      </c>
+      <c r="L61">
+        <f ca="1"/>
+        <v>93.811165081461652</v>
+      </c>
+      <c r="M61">
+        <f ca="1"/>
+        <v>92.607818502809138</v>
+      </c>
+      <c r="N61">
+        <f ca="1"/>
+        <v>-0.9201647421278436</v>
+      </c>
+      <c r="O61">
+        <f ca="1"/>
+        <v>6.2860919769134114</v>
+      </c>
+      <c r="P61">
+        <f ca="1"/>
+        <v>6.2172489379008766E-15</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <f ca="1"/>
+        <v>-0.2858717020618361</v>
+      </c>
+      <c r="J62">
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="K62">
+        <f ca="1"/>
+        <v>-0.2858717020618361</v>
+      </c>
+      <c r="L62">
+        <f ca="1"/>
+        <v>94.058398083313932</v>
+      </c>
+      <c r="M62">
+        <f ca="1"/>
+        <v>92.612996949345472</v>
+      </c>
+      <c r="N62">
+        <f ca="1"/>
+        <v>-0.92021979778094698</v>
+      </c>
+      <c r="O62">
+        <f ca="1"/>
+        <v>6.0585968855185115</v>
+      </c>
+      <c r="P62">
+        <f ca="1"/>
+        <v>7.0256300777060687E-17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <f ca="1"/>
+        <v>-0.22294642482220459</v>
+      </c>
+      <c r="J63">
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="K63">
+        <f ca="1"/>
+        <v>-0.22294642482220459</v>
+      </c>
+      <c r="L63">
+        <f ca="1"/>
+        <v>95.24198857529116</v>
+      </c>
+      <c r="M63">
+        <f ca="1"/>
+        <v>88.665365576165584</v>
+      </c>
+      <c r="N63">
+        <f ca="1"/>
+        <v>-0.87877136277626211</v>
+      </c>
+      <c r="O63">
+        <f ca="1"/>
+        <v>4.9694334823357877</v>
+      </c>
+      <c r="P63">
+        <f ca="1"/>
+        <v>-6.2172489379008766E-15</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <f ca="1"/>
+        <v>-0.22783116813625501</v>
+      </c>
+      <c r="J64">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="K64">
+        <f ca="1"/>
+        <v>-0.22783116813625501</v>
+      </c>
+      <c r="L64">
+        <f ca="1"/>
+        <v>95.14137586342531</v>
+      </c>
+      <c r="M64">
+        <f ca="1"/>
+        <v>90.286046548072875</v>
+      </c>
+      <c r="N64">
+        <f ca="1"/>
+        <v>-0.89580581237507562</v>
+      </c>
+      <c r="O64">
+        <f ca="1"/>
+        <v>5.0578490522547526</v>
+      </c>
+      <c r="P64">
+        <f ca="1"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f ca="1"/>
+        <v>-0.1600746841068077</v>
+      </c>
+      <c r="J65">
+        <v>0.216</v>
+      </c>
+      <c r="K65">
+        <f ca="1"/>
+        <v>-0.1600746841068077</v>
+      </c>
+      <c r="L65">
+        <f ca="1"/>
+        <v>96.431725403138998</v>
+      </c>
+      <c r="M65">
+        <f ca="1"/>
+        <v>84.247465921905771</v>
+      </c>
+      <c r="N65">
+        <f ca="1"/>
+        <v>-0.83318554294691349</v>
+      </c>
+      <c r="O65">
+        <f ca="1"/>
+        <v>3.9019464345837349</v>
+      </c>
+      <c r="P65">
+        <f ca="1"/>
+        <v>-6.2172489379008766E-15</v>
+      </c>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <f ca="1"/>
+        <v>-0.11503561330813133</v>
+      </c>
+      <c r="J66">
+        <v>0.22</v>
+      </c>
+      <c r="K66">
+        <f ca="1"/>
+        <v>-0.11503561330813133</v>
+      </c>
+      <c r="L66">
+        <f ca="1"/>
+        <v>97.296504476077644</v>
+      </c>
+      <c r="M66">
+        <f ca="1"/>
+        <v>79.120541210621226</v>
+      </c>
+      <c r="N66">
+        <f ca="1"/>
+        <v>-0.78049172070846806</v>
+      </c>
+      <c r="O66">
+        <f ca="1"/>
+        <v>3.1814250131682229</v>
+      </c>
+      <c r="P66">
+        <f ca="1"/>
+        <v>-8.8817841970012523E-16</v>
+      </c>
+    </row>
+    <row r="67" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <f ca="1"/>
+        <v>-7.1797346478312679E-2</v>
+      </c>
+      <c r="J67">
+        <v>0.224</v>
+      </c>
+      <c r="K67">
+        <f ca="1"/>
+        <v>-7.1797346478312679E-2</v>
+      </c>
+      <c r="L67">
+        <f ca="1"/>
+        <v>98.133688430013336</v>
+      </c>
+      <c r="M67">
+        <f ca="1"/>
+        <v>72.693967894557503</v>
+      </c>
+      <c r="N67">
+        <f ca="1"/>
+        <v>-0.71500377850555163</v>
+      </c>
+      <c r="O67">
+        <f ca="1"/>
+        <v>2.5280098684114307</v>
+      </c>
+      <c r="P67">
+        <f ca="1"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <f ca="1"/>
+        <v>-5.3812977654086082E-2</v>
+      </c>
+      <c r="J68">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="K68">
+        <f ca="1"/>
+        <v>-5.3812977654086082E-2</v>
+      </c>
+      <c r="L68">
+        <f ca="1"/>
+        <v>98.479419814773422</v>
+      </c>
+      <c r="M68">
+        <f ca="1"/>
+        <v>70.43427813402802</v>
+      </c>
+      <c r="N68">
+        <f ca="1"/>
+        <v>-0.69205797150567638</v>
+      </c>
+      <c r="O68">
+        <f ca="1"/>
+        <v>2.2808106219600148</v>
+      </c>
+      <c r="P68">
+        <f ca="1"/>
+        <v>1.3322676295501878E-15</v>
+      </c>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <f ca="1"/>
+        <v>-0.12187154581589391</v>
+      </c>
+      <c r="J69">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K69">
+        <f ca="1"/>
+        <v>-0.12187154581589391</v>
+      </c>
+      <c r="L69">
+        <f ca="1"/>
+        <v>97.140256440934962</v>
+      </c>
+      <c r="M69">
+        <f ca="1"/>
+        <v>86.47751549586215</v>
+      </c>
+      <c r="N69">
+        <f ca="1"/>
+        <v>-0.85721336587700003</v>
+      </c>
+      <c r="O69">
+        <f ca="1"/>
+        <v>3.2075893099733577</v>
+      </c>
+      <c r="P69">
+        <f ca="1"/>
+        <v>-3.5527136788005009E-15</v>
+      </c>
+    </row>
+    <row r="70" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <f ca="1"/>
+        <v>-0.20015832132054789</v>
+      </c>
+      <c r="J70">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="K70">
+        <f ca="1"/>
+        <v>-0.20015832132054789</v>
+      </c>
+      <c r="L70">
+        <f ca="1"/>
+        <v>95.62349196521879</v>
+      </c>
+      <c r="M70">
+        <f ca="1"/>
+        <v>97.252645173955599</v>
+      </c>
+      <c r="N70">
+        <f ca="1"/>
+        <v>-0.96989623759238031</v>
+      </c>
+      <c r="O70">
+        <f ca="1"/>
+        <v>4.5077800914446868</v>
+      </c>
+      <c r="P70">
+        <f ca="1"/>
+        <v>-3.5527136788005009E-15</v>
+      </c>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <f ca="1"/>
+        <v>-0.10822702433889336</v>
+      </c>
+      <c r="J71">
+        <v>0.24</v>
+      </c>
+      <c r="K71">
+        <f ca="1"/>
+        <v>-0.10822702433889336</v>
+      </c>
+      <c r="L71">
+        <f ca="1"/>
+        <v>97.390121264961778</v>
+      </c>
+      <c r="M71">
+        <f ca="1"/>
+        <v>90.96019913763331</v>
+      </c>
+      <c r="N71">
+        <f ca="1"/>
+        <v>-0.90528551573895</v>
+      </c>
+      <c r="O71">
+        <f ca="1"/>
+        <v>2.7943329804035102</v>
+      </c>
+      <c r="P71">
+        <f ca="1"/>
+        <v>-4.4408920985006262E-15</v>
+      </c>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <f ca="1"/>
+        <v>-0.21834586888049662</v>
+      </c>
+      <c r="J72">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="K72">
+        <f ca="1"/>
+        <v>-0.21834586888049662</v>
+      </c>
+      <c r="L72">
+        <f ca="1"/>
+        <v>95.261049469890509</v>
+      </c>
+      <c r="M72">
+        <f ca="1"/>
+        <v>99.898424027326939</v>
+      </c>
+      <c r="N72">
+        <f ca="1"/>
+        <v>-0.9991142625293028</v>
+      </c>
+      <c r="O72">
+        <f ca="1"/>
+        <v>4.7217508384498501</v>
+      </c>
+      <c r="P72">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <f ca="1"/>
+        <v>-0.15756547956605738</v>
+      </c>
+      <c r="J73">
+        <v>0.248</v>
+      </c>
+      <c r="K73">
+        <f ca="1"/>
+        <v>-0.15756547956605738</v>
+      </c>
+      <c r="L73">
+        <f ca="1"/>
+        <v>96.418403403830638</v>
+      </c>
+      <c r="M73">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f ca="1"/>
+        <v>3.5654220162558659</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xls/hedge.xlsx
+++ b/xls/hedge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\FRE6233\Spring2023\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C78CD5D-1F92-4BF7-B1BD-13AA211FA4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05462B9-6410-4C42-B61D-2E7244A0FC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B180D58D-C4F9-40E2-AED8-646FAEC4081C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{B180D58D-C4F9-40E2-AED8-646FAEC4081C}"/>
   </bookViews>
   <sheets>
     <sheet name="put" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>f</t>
   </si>
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -268,6 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -2373,12 +2374,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" cm="1">
         <f t="array" ref="B10:B50">_xll.ARRAY.SEQUENCE(start,stop,incr)</f>
         <v>90</v>
@@ -2458,7 +2459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>90.5</v>
       </c>
@@ -2472,7 +2473,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>91</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>91.5</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>92</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>92.5</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>93</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>93.5</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>94</v>
       </c>
@@ -2570,7 +2571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>94.5</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>95</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>95.5</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>96</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>96.5</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>97</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>97.5</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>98</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>98.5</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>99</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>99.5</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>100</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>100.5</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>101</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>101.5</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>102</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>102.5</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>103</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>103.5</v>
       </c>
@@ -2836,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>104</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>104.5</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>105</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>105.5</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>106</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>106.5</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>107</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>107.5</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>108</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>108.5</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>109</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>109.5</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>110</v>
       </c>
@@ -3026,19 +3027,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A63909C-82BF-46E9-986B-4B9C7D61A01A}">
-  <dimension ref="B2:S73"/>
+  <dimension ref="B2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3064,12 +3065,11 @@
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2">
-        <f>1/250</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3088,10 +3088,10 @@
       </c>
       <c r="J5" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">_xlfn.TAKE(A_t,-1)</f>
-        <v>3.5654220162558659</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+        <v>0.55204792587665086</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3104,68 +3104,71 @@
       </c>
       <c r="F6" s="5">
         <f ca="1">H21</f>
-        <v>7.5489189199517739</v>
+        <v>0.55204792587665086</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">MAX(k - _xlfn.TAKE(S_t, -1), 0)</f>
-        <v>3.5815965961693621</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
         <f ca="1">MAX(k - D21, 0)</f>
-        <v>5.8494909614180131</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="5">
         <f ca="1">C7-F6</f>
-        <v>-1.6994279585337608</v>
-      </c>
-      <c r="I7" s="7" t="s">
+        <v>-0.55204792587665086</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J7">
         <f ca="1">J5-J6</f>
-        <v>-1.6174579913496245E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+        <v>0.55204792587665086</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.MONTE.MEAN(C7)</f>
-        <v>1.7934331411931432</v>
+        <v>3.9234923974224407</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="4">
         <f t="array" aca="1" ref="F8:G8" ca="1">_xll.MONTE.STDEV(F7)</f>
-        <v>-2.3853760448894601</v>
+        <v>-6.6122454614262229E-3</v>
       </c>
       <c r="G8" s="4">
         <f ca="1"/>
-        <v>0.66149664274624853</v>
-      </c>
-      <c r="J8">
+        <v>1.0293130256814498</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="8">
         <f t="array" aca="1" ref="J8:K8" ca="1">_xll.MONTE.STDEV(J7)</f>
-        <v>2.2719366157432513E-2</v>
-      </c>
-      <c r="K8">
-        <f ca="1"/>
-        <v>0.44006885711873439</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+        <v>6.6122454614261942E-3</v>
+      </c>
+      <c r="K8" s="8">
+        <f ca="1"/>
+        <v>1.0293130256814498</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -3209,12 +3212,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" cm="1">
-        <f t="array" aca="1" ref="C11:C73" ca="1">_xlfn.ANCHORARRAY(K11)</f>
+        <f t="array" aca="1" ref="C11:C21" ca="1">_xlfn.ANCHORARRAY(K11)</f>
         <v>0</v>
       </c>
       <c r="D11">
@@ -3238,553 +3241,549 @@
         <v>-3.987761167674492</v>
       </c>
       <c r="J11" cm="1">
-        <f t="array" ref="J11:J73">_xll.ARRAY.SEQUENCE(0, t, dt)</f>
+        <f t="array" ref="J11:J21">_xll.ARRAY.SEQUENCE(0, t, dt)</f>
         <v>0</v>
       </c>
       <c r="K11" cm="1">
-        <f t="array" aca="1" ref="K11:K73" ca="1">_xll.RANDOM.BROWNIAN(time)</f>
+        <f t="array" aca="1" ref="K11:K21" ca="1">_xll.RANDOM.BROWNIAN(time)</f>
         <v>0</v>
       </c>
       <c r="L11" cm="1">
-        <f t="array" aca="1" ref="L11:L73" ca="1">f*EXP(sigma*B_t - sigma^2*(time)/2)</f>
+        <f t="array" aca="1" ref="L11:L21" ca="1">f*EXP(sigma*B_t - sigma^2*(time)/2)</f>
         <v>100</v>
       </c>
       <c r="M11" cm="1">
-        <f t="array" aca="1" ref="M11:M73" ca="1">_xlfn.VSTACK(_xlfn.DROP(SUMSCAN(V_0,-NABLA(N_t)*S_t),-1),0)</f>
+        <f t="array" aca="1" ref="M11:M21" ca="1">_xlfn.VSTACK(_xlfn.DROP(SUMSCAN(V_0,-NABLA(N_t)*S_t),-1),0)</f>
         <v>51.993880583837246</v>
       </c>
       <c r="N11" cm="1">
-        <f t="array" aca="1" ref="N11:N73" ca="1">_xlfn.VSTACK(_xlfn.DROP(_xlfn.MAP(S_t,time,_xlfn.LAMBDA(_xlpm.s_,_xlpm.t_, _xll.BLACK.PUT.DELTA(_xlpm.s_, sigma*SQRT(t - _xlpm.t_), k))),-1),0)</f>
+        <f t="array" aca="1" ref="N11:N21" ca="1">_xlfn.VSTACK(_xlfn.DROP(_xlfn.MAP(S_t,time,_xlfn.LAMBDA(_xlpm.s_,_xlpm.t_, _xll.BLACK.PUT.DELTA(_xlpm.s_, sigma*SQRT(t - _xlpm.t_), k))),-1),0)</f>
         <v>-0.48006119416162751</v>
       </c>
       <c r="O11" cm="1">
-        <f t="array" aca="1" ref="O11:O73" ca="1">M_t + N_t*S_t</f>
+        <f t="array" aca="1" ref="O11:O21" ca="1">M_t + N_t*S_t</f>
         <v>3.987761167674492</v>
       </c>
       <c r="P11" cm="1">
-        <f t="array" aca="1" ref="P11:P73" ca="1">_xlfn.VSTACK(-O11, _xlfn.DROP(-NABLA(M_t)-NABLA(N_t)*S_t,1))</f>
+        <f t="array" aca="1" ref="P11:P21" ca="1">_xlfn.VSTACK(-O11, _xlfn.DROP(-NABLA(M_t)-NABLA(N_t)*S_t,1))</f>
         <v>-3.987761167674492</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C12">
         <f ca="1"/>
-        <v>-5.7462331473872717E-2</v>
+        <v>-0.13235679721649748</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>98.807915673099671</v>
+        <v>97.338911953138364</v>
       </c>
       <c r="E12">
         <f ca="1">E11 - (F12-F11)*D12</f>
-        <v>57.073947058239099</v>
+        <v>63.047645306995072</v>
       </c>
       <c r="F12" s="2" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">_xll.BLACK.PUT.DELTA(D12, sigma*SQRT(t - B12), k)</f>
-        <v>-0.53147475186897719</v>
+        <v>-0.59362076146477771</v>
       </c>
       <c r="G12">
         <f t="shared" ref="G12:G21" ca="1" si="1">E12+F12*D12</f>
-        <v>4.5600345931876305</v>
+        <v>5.2652462732201215</v>
       </c>
       <c r="H12">
         <f ca="1">-(E12-E11) - (F12-F11)*D12</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K12">
         <f ca="1"/>
-        <v>-5.7462331473872717E-2</v>
+        <v>-0.13235679721649748</v>
       </c>
       <c r="L12">
         <f ca="1"/>
-        <v>98.849423713760757</v>
+        <v>97.338911953138364</v>
       </c>
       <c r="M12">
         <f ca="1"/>
-        <v>56.607495922537289</v>
+        <v>63.047645306995072</v>
       </c>
       <c r="N12">
         <f ca="1"/>
-        <v>-0.52673435790266998</v>
+        <v>-0.59362076146477771</v>
       </c>
       <c r="O12">
         <f ca="1"/>
-        <v>4.5401081936205543</v>
+        <v>5.2652462732201215</v>
       </c>
       <c r="P12">
         <f ca="1"/>
-        <v>-1.7763568394002505E-15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+        <v>1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0.05</v>
       </c>
       <c r="C13">
         <f ca="1"/>
-        <v>-0.12224089994283519</v>
+        <v>-6.8380494488745641E-2</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>97.487289558143871</v>
+        <v>98.54310701267147</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E20" ca="1" si="2">E12 - (F13-F12)*D13</f>
-        <v>63.243117924719868</v>
+        <v>58.503341737731255</v>
       </c>
       <c r="F13" s="2" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">_xll.BLACK.PUT.DELTA(D13, sigma*SQRT(t - B13), k)</f>
-        <v>-0.59475654885443263</v>
+        <v>-0.54750588131715383</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2619140299454514</v>
+        <v>4.5504110850279602</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H21" ca="1" si="3">-(E13-E12) - (F13-F12)*D13</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.0000000000000002E-3</v>
+        <v>0.05</v>
       </c>
       <c r="K13">
         <f ca="1"/>
-        <v>-0.12224089994283519</v>
+        <v>-6.8380494488745641E-2</v>
       </c>
       <c r="L13">
         <f ca="1"/>
-        <v>97.569213284520671</v>
+        <v>98.54310701267147</v>
       </c>
       <c r="M13">
         <f ca="1"/>
-        <v>61.767554383802803</v>
+        <v>58.503341737731255</v>
       </c>
       <c r="N13">
         <f ca="1"/>
-        <v>-0.57962049162825735</v>
+        <v>-0.54750588131715383</v>
       </c>
       <c r="O13">
         <f ca="1"/>
-        <v>5.2144390120466326</v>
+        <v>4.5504110850279602</v>
       </c>
       <c r="P13">
         <f ca="1"/>
-        <v>1.7763568394002505E-15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C14">
         <f ca="1"/>
-        <v>-0.11850960960750312</v>
+        <v>7.1684329323322582E-2</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>97.51129954583925</v>
+        <v>101.29196121157031</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>63.981799678275664</v>
+        <v>45.850728930941706</v>
       </c>
       <c r="F14" s="2" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">_xll.BLACK.PUT.DELTA(D14, sigma*SQRT(t - B14), k)</f>
-        <v>-0.60233189404002874</v>
+        <v>-0.42259357183622859</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2476339325257157</v>
+        <v>3.0453972442474893</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.2204460492503131E-15</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.2E-2</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="K14">
         <f ca="1"/>
-        <v>-0.11850960960750312</v>
+        <v>7.1684329323322582E-2</v>
       </c>
       <c r="L14">
         <f ca="1"/>
-        <v>97.634241220256698</v>
+        <v>101.29196121157031</v>
       </c>
       <c r="M14">
         <f ca="1"/>
-        <v>61.602305982816929</v>
+        <v>45.850728930941706</v>
       </c>
       <c r="N14">
         <f ca="1"/>
-        <v>-0.57792796655794842</v>
+        <v>-0.42259357183622859</v>
       </c>
       <c r="O14">
         <f ca="1"/>
-        <v>5.1767474879657485</v>
+        <v>3.0453972442474893</v>
       </c>
       <c r="P14">
         <f ca="1"/>
-        <v>3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+        <v>1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0.1</v>
       </c>
       <c r="C15">
         <f ca="1"/>
-        <v>-0.16256774121376957</v>
+        <v>-0.1277805520716517</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>96.607525097580847</v>
+        <v>97.282009568338466</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>69.35362986733702</v>
+        <v>65.481408115092478</v>
       </c>
       <c r="F15" s="2" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">_xll.BLACK.PUT.DELTA(D15, sigma*SQRT(t - B15), k)</f>
-        <v>-0.65793657062847677</v>
+        <v>-0.62438503637583243</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7920061077301739</v>
+        <v>4.7399770320513852</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.6E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K15">
         <f ca="1"/>
-        <v>-0.16256774121376957</v>
+        <v>-0.1277805520716517</v>
       </c>
       <c r="L15">
         <f ca="1"/>
-        <v>96.769962148662501</v>
+        <v>97.282009568338466</v>
       </c>
       <c r="M15">
         <f ca="1"/>
-        <v>65.138952331464935</v>
+        <v>65.481408115092478</v>
       </c>
       <c r="N15">
         <f ca="1"/>
-        <v>-0.61447491015615763</v>
+        <v>-0.62438503637583243</v>
       </c>
       <c r="O15">
         <f ca="1"/>
-        <v>5.6762385343507731</v>
+        <v>4.7399770320513852</v>
       </c>
       <c r="P15">
         <f ca="1"/>
-        <v>2.2204460492503131E-15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0.125</v>
       </c>
       <c r="C16">
         <f ca="1"/>
-        <v>-0.19998637967441818</v>
+        <v>6.3679352279137652E-2</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>95.839307624253777</v>
+        <v>101.02884361767019</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>74.744256465652242</v>
+        <v>45.694618612048075</v>
       </c>
       <c r="F16" s="2" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">_xll.BLACK.PUT.DELTA(D16, sigma*SQRT(t - B16), k)</f>
-        <v>-0.71418308087508287</v>
+        <v>-0.42853216115215076</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2974444776278631</v>
+        <v>2.4005099178651932</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02</v>
+        <v>0.125</v>
       </c>
       <c r="K16">
         <f ca="1"/>
-        <v>-0.19998637967441818</v>
+        <v>6.3679352279137652E-2</v>
       </c>
       <c r="L16">
         <f ca="1"/>
-        <v>96.040781643943689</v>
+        <v>101.02884361767019</v>
       </c>
       <c r="M16">
         <f ca="1"/>
-        <v>68.119088773416038</v>
+        <v>45.694618612048075</v>
       </c>
       <c r="N16">
         <f ca="1"/>
-        <v>-0.64550481631622503</v>
+        <v>-0.42853216115215076</v>
       </c>
       <c r="O16">
         <f ca="1"/>
-        <v>6.124301659475492</v>
+        <v>2.4005099178651932</v>
       </c>
       <c r="P16">
         <f ca="1"/>
-        <v>-6.6613381477509392E-15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+        <v>-3.5527136788005009E-15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0.15</v>
       </c>
       <c r="C17">
         <f ca="1"/>
-        <v>-0.14921501863568948</v>
+        <v>0.13452765527068214</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>96.76904714612246</v>
+        <v>102.41935588344671</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>72.124270100165987</v>
+        <v>36.734630560814111</v>
       </c>
       <c r="F17" s="2" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">_xll.BLACK.PUT.DELTA(D17, sigma*SQRT(t - B17), k)</f>
-        <v>-0.6871084486165876</v>
+        <v>-0.34104881414271987</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6334402414883584</v>
+        <v>1.8046306915034123</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2.4E-2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K17">
         <f ca="1"/>
-        <v>-0.14921501863568948</v>
+        <v>0.13452765527068214</v>
       </c>
       <c r="L17">
         <f ca="1"/>
-        <v>97.01321266427118</v>
+        <v>102.41935588344671</v>
       </c>
       <c r="M17">
         <f ca="1"/>
-        <v>64.379012640638024</v>
+        <v>36.734630560814111</v>
       </c>
       <c r="N17">
         <f ca="1"/>
-        <v>-0.60695258172812716</v>
+        <v>-0.34104881414271987</v>
       </c>
       <c r="O17">
         <f ca="1"/>
-        <v>5.4965927523187901</v>
+        <v>1.8046306915034123</v>
       </c>
       <c r="P17">
         <f ca="1"/>
-        <v>5.3290705182007514E-15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+        <v>-1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0.17499999999999999</v>
       </c>
       <c r="C18">
         <f ca="1"/>
-        <v>-0.14952733481861297</v>
+        <v>0.27482922828874706</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>96.714633418958542</v>
+        <v>105.28132275347637</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>75.29461842707687</v>
+        <v>18.386022648865708</v>
       </c>
       <c r="F18" s="2" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">_xll.BLACK.PUT.DELTA(D18, sigma*SQRT(t - B18), k)</f>
-        <v>-0.71988888953680741</v>
+        <v>-0.16676711410260014</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6708283731434079</v>
+        <v>0.82856028436404117</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9968028886505635E-15</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2.8000000000000001E-2</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="K18">
         <f ca="1"/>
-        <v>-0.14952733481861297</v>
+        <v>0.27482922828874706</v>
       </c>
       <c r="L18">
         <f ca="1"/>
-        <v>96.999392832435916</v>
+        <v>105.28132275347637</v>
       </c>
       <c r="M18">
         <f ca="1"/>
-        <v>64.557730727416327</v>
+        <v>18.386022648865708</v>
       </c>
       <c r="N18">
         <f ca="1"/>
-        <v>-0.60879504776383764</v>
+        <v>-0.16676711410260014</v>
       </c>
       <c r="O18">
         <f ca="1"/>
-        <v>5.5049807349302569</v>
+        <v>0.82856028436404117</v>
       </c>
       <c r="P18">
         <f ca="1"/>
-        <v>-2.1094237467877974E-15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>0.2</v>
       </c>
       <c r="C19">
         <f ca="1"/>
-        <v>-0.27749287968243952</v>
+        <v>0.40876607181823754</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>94.223687539542865</v>
+        <v>108.08558860459681</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>92.696411983071215</v>
+        <v>4.5893478318920291</v>
       </c>
       <c r="F19" s="2" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">_xll.BLACK.PUT.DELTA(D19, sigma*SQRT(t - B19), k)</f>
-        <v>-0.90457486405559639</v>
+        <v>-3.912128272867621E-2</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4640326361722344</v>
+        <v>0.36090096119621418</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.2000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="K19">
         <f ca="1"/>
-        <v>-0.27749287968243952</v>
+        <v>0.40876607181823754</v>
       </c>
       <c r="L19">
         <f ca="1"/>
-        <v>94.540811599746604</v>
+        <v>108.08558860459681</v>
       </c>
       <c r="M19">
         <f ca="1"/>
-        <v>74.161410108878982</v>
+        <v>4.5893478318920291</v>
       </c>
       <c r="N19">
         <f ca="1"/>
-        <v>-0.71037741435194501</v>
+        <v>-3.912128272867621E-2</v>
       </c>
       <c r="O19">
         <f ca="1"/>
-        <v>7.0017528139166245</v>
+        <v>0.36090096119621418</v>
       </c>
       <c r="P19">
         <f ca="1"/>
-        <v>-1.7763568394002505E-15</v>
-      </c>
-      <c r="S19" cm="1">
-        <f t="array" aca="1" ref="S19" ca="1">_xll.BLACK.PUT.DELTA(L19,sigma*SQRT($J$21-J19),k)</f>
-        <v>-0.99912387607123909</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>0.22500000000000001</v>
       </c>
       <c r="C20">
         <f ca="1"/>
-        <v>-0.26181651726855243</v>
+        <v>0.31291072348218374</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>94.472320093917034</v>
+        <v>105.98020492523641</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>98.183383453162534</v>
+        <v>3.8319697082375725</v>
       </c>
       <c r="F20" s="2" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">_xll.BLACK.PUT.DELTA(D20, sigma*SQRT(t - B20), k)</f>
-        <v>-0.96265506643272225</v>
+        <v>-3.1974871526803672E-2</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2391258770994256</v>
+        <v>0.44326627136881269</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.6000000000000004E-2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="K20">
         <f ca="1"/>
-        <v>-0.26181651726855243</v>
+        <v>0.31291072348218374</v>
       </c>
       <c r="L20">
         <f ca="1"/>
-        <v>94.830101244236218</v>
+        <v>105.98020492523641</v>
       </c>
       <c r="M20">
         <f ca="1"/>
-        <v>73.279026256302956</v>
+        <v>3.8319697082375725</v>
       </c>
       <c r="N20">
         <f ca="1"/>
-        <v>-0.70107252232927975</v>
+        <v>-3.1974871526803672E-2</v>
       </c>
       <c r="O20">
         <f ca="1"/>
-        <v>6.7962479842653067</v>
+        <v>0.44326627136881269</v>
       </c>
       <c r="P20">
         <f ca="1"/>
-        <v>-6.6613381477509392E-15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>0.25</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>-0.27637762111578673</v>
+        <v>0.15227169367065554</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>94.150509038581987</v>
+        <v>102.57810667390648</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3798,1750 +3797,34 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>7.5489189199517739</v>
+        <v>0.55204792587665086</v>
       </c>
       <c r="J21">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="K21">
         <f ca="1"/>
-        <v>-0.27637762111578673</v>
+        <v>0.15227169367065554</v>
       </c>
       <c r="L21">
         <f ca="1"/>
-        <v>94.546772747825969</v>
+        <v>102.57810667390648</v>
       </c>
       <c r="M21">
         <f ca="1"/>
-        <v>74.530204657433373</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <f ca="1"/>
-        <v>-0.71430595552606946</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <f ca="1"/>
-        <v>6.994881807891403</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <f ca="1"/>
-        <v>-4.2188474935755949E-15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <f ca="1"/>
-        <v>-0.24585392729097813</v>
-      </c>
-      <c r="J22">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="K22">
-        <f ca="1"/>
-        <v>-0.24585392729097813</v>
-      </c>
-      <c r="L22">
-        <f ca="1"/>
-        <v>95.118111710520864</v>
-      </c>
-      <c r="M22">
-        <f ca="1"/>
-        <v>72.55760033286488</v>
-      </c>
-      <c r="N22">
-        <f ca="1"/>
-        <v>-0.6935674832299431</v>
-      </c>
-      <c r="O22">
-        <f ca="1"/>
-        <v>6.5867709842143398</v>
-      </c>
-      <c r="P22">
-        <f ca="1"/>
-        <v>4.8849813083506888E-15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <f ca="1"/>
-        <v>-0.23376943882314177</v>
-      </c>
-      <c r="J23">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="K23">
-        <f ca="1"/>
-        <v>-0.23376943882314177</v>
-      </c>
-      <c r="L23">
-        <f ca="1"/>
-        <v>95.340652933152114</v>
-      </c>
-      <c r="M23">
-        <f ca="1"/>
-        <v>71.880805221464414</v>
-      </c>
-      <c r="N23">
-        <f ca="1"/>
-        <v>-0.68646877884121815</v>
-      </c>
-      <c r="O23">
-        <f ca="1"/>
-        <v>6.432423628519075</v>
-      </c>
-      <c r="P23">
-        <f ca="1"/>
-        <v>-3.4416913763379853E-15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <f ca="1"/>
-        <v>-9.3589527338048817E-2</v>
-      </c>
-      <c r="J24">
-        <v>5.2000000000000005E-2</v>
-      </c>
-      <c r="K24">
-        <f ca="1"/>
-        <v>-9.3589527338048817E-2</v>
-      </c>
-      <c r="L24">
-        <f ca="1"/>
-        <v>98.043600277314297</v>
-      </c>
-      <c r="M24">
-        <f ca="1"/>
-        <v>60.505745363163108</v>
-      </c>
-      <c r="N24">
-        <f ca="1"/>
-        <v>-0.57044835704798347</v>
-      </c>
-      <c r="O24">
-        <f ca="1"/>
-        <v>4.5769346658999481</v>
-      </c>
-      <c r="P24">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C25">
-        <f ca="1"/>
-        <v>-0.22304670029667428</v>
-      </c>
-      <c r="J25">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="K25">
-        <f ca="1"/>
-        <v>-0.22304670029667428</v>
-      </c>
-      <c r="L25">
-        <f ca="1"/>
-        <v>95.530048877635082</v>
-      </c>
-      <c r="M25">
-        <f ca="1"/>
-        <v>71.222608117041943</v>
-      </c>
-      <c r="N25">
-        <f ca="1"/>
-        <v>-0.68263151700434566</v>
-      </c>
-      <c r="O25">
-        <f ca="1"/>
-        <v>6.0107859322026229</v>
-      </c>
-      <c r="P25">
-        <f ca="1"/>
-        <v>-1.7763568394002505E-15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C26">
-        <f ca="1"/>
-        <v>-0.25198960742786641</v>
-      </c>
-      <c r="J26">
-        <v>0.06</v>
-      </c>
-      <c r="K26">
-        <f ca="1"/>
-        <v>-0.25198960742786641</v>
-      </c>
-      <c r="L26">
-        <f ca="1"/>
-        <v>94.97106483312956</v>
-      </c>
-      <c r="M26">
-        <f ca="1"/>
-        <v>73.655631197663539</v>
-      </c>
-      <c r="N26">
-        <f ca="1"/>
-        <v>-0.70825008919679799</v>
-      </c>
-      <c r="O26">
-        <f ca="1"/>
-        <v>6.3923660584846402</v>
-      </c>
-      <c r="P26">
-        <f ca="1"/>
-        <v>5.773159728050814E-15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <f ca="1"/>
-        <v>-0.27242852807132728</v>
-      </c>
-      <c r="J27">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="K27">
-        <f ca="1"/>
-        <v>-0.27242852807132728</v>
-      </c>
-      <c r="L27">
-        <f ca="1"/>
-        <v>94.57606963556006</v>
-      </c>
-      <c r="M27">
-        <f ca="1"/>
-        <v>75.417150623847405</v>
-      </c>
-      <c r="N27">
-        <f ca="1"/>
-        <v>-0.72687551350309143</v>
-      </c>
-      <c r="O27">
-        <f ca="1"/>
-        <v>6.6721214423955502</v>
-      </c>
-      <c r="P27">
-        <f ca="1"/>
-        <v>-5.773159728050814E-15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C28">
-        <f ca="1"/>
-        <v>-0.27905992563562132</v>
-      </c>
-      <c r="J28">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K28">
-        <f ca="1"/>
-        <v>-0.27905992563562132</v>
-      </c>
-      <c r="L28">
-        <f ca="1"/>
-        <v>94.443162720464088</v>
-      </c>
-      <c r="M28">
-        <f ca="1"/>
-        <v>76.165843240114185</v>
-      </c>
-      <c r="N28">
-        <f ca="1"/>
-        <v>-0.73480295467194323</v>
-      </c>
-      <c r="O28">
-        <f ca="1"/>
-        <v>6.768728224554053</v>
-      </c>
-      <c r="P28">
-        <f ca="1"/>
-        <v>-3.3306690738754696E-15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <f ca="1"/>
-        <v>-0.30440723285882931</v>
-      </c>
-      <c r="J29">
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="K29">
-        <f ca="1"/>
-        <v>-0.30440723285882931</v>
-      </c>
-      <c r="L29">
-        <f ca="1"/>
-        <v>93.958081321212774</v>
-      </c>
-      <c r="M29">
-        <f ca="1"/>
-        <v>78.242759485910156</v>
-      </c>
-      <c r="N29">
-        <f ca="1"/>
-        <v>-0.75690766580046931</v>
-      </c>
-      <c r="O29">
-        <f ca="1"/>
-        <v>7.125167469980326</v>
-      </c>
-      <c r="P29">
-        <f ca="1"/>
-        <v>-8.8817841970012523E-16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <f ca="1"/>
-        <v>-0.37659308032884942</v>
-      </c>
-      <c r="J30">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="K30">
-        <f ca="1"/>
-        <v>-0.37659308032884942</v>
-      </c>
-      <c r="L30">
-        <f ca="1"/>
-        <v>92.603928941167894</v>
-      </c>
-      <c r="M30">
-        <f ca="1"/>
-        <v>83.195050418128289</v>
-      </c>
-      <c r="N30">
-        <f ca="1"/>
-        <v>-0.81038586039590987</v>
-      </c>
-      <c r="O30">
-        <f ca="1"/>
-        <v>8.1501357870982503</v>
-      </c>
-      <c r="P30">
-        <f ca="1"/>
-        <v>-6.2172489379008766E-15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <f ca="1"/>
-        <v>-0.33325892155595871</v>
-      </c>
-      <c r="J31">
-        <v>0.08</v>
-      </c>
-      <c r="K31">
-        <f ca="1"/>
-        <v>-0.33325892155595871</v>
-      </c>
-      <c r="L31">
-        <f ca="1"/>
-        <v>93.402527105879486</v>
-      </c>
-      <c r="M31">
-        <f ca="1"/>
-        <v>80.748862260840198</v>
-      </c>
-      <c r="N31">
-        <f ca="1"/>
-        <v>-0.78419611764392705</v>
-      </c>
-      <c r="O31">
-        <f ca="1"/>
-        <v>7.502963126277848</v>
-      </c>
-      <c r="P31">
-        <f ca="1"/>
-        <v>4.4408920985006262E-15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <f ca="1"/>
-        <v>-0.34603557452374034</v>
-      </c>
-      <c r="J32">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="K32">
-        <f ca="1"/>
-        <v>-0.34603557452374034</v>
-      </c>
-      <c r="L32">
-        <f ca="1"/>
-        <v>93.156704622706215</v>
-      </c>
-      <c r="M32">
-        <f ca="1"/>
-        <v>81.895058785218268</v>
-      </c>
-      <c r="N32">
-        <f ca="1"/>
-        <v>-0.79650007932892097</v>
-      </c>
-      <c r="O32">
-        <f ca="1"/>
-        <v>7.6957361632119046</v>
-      </c>
-      <c r="P32">
-        <f ca="1"/>
-        <v>3.9968028886505635E-15</v>
-      </c>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C33">
-        <f ca="1"/>
-        <v>-0.29684982655775161</v>
-      </c>
-      <c r="J33">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="K33">
-        <f ca="1"/>
-        <v>-0.29684982655775161</v>
-      </c>
-      <c r="L33">
-        <f ca="1"/>
-        <v>94.070097333590851</v>
-      </c>
-      <c r="M33">
-        <f ca="1"/>
-        <v>78.83531436509962</v>
-      </c>
-      <c r="N33">
-        <f ca="1"/>
-        <v>-0.76397386210530949</v>
-      </c>
-      <c r="O33">
-        <f ca="1"/>
-        <v>6.9682187965338471</v>
-      </c>
-      <c r="P33">
-        <f ca="1"/>
-        <v>-3.9968028886505635E-15</v>
-      </c>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C34">
-        <f ca="1"/>
-        <v>-0.30769326176445067</v>
-      </c>
-      <c r="J34">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="K34">
-        <f ca="1"/>
-        <v>-0.30769326176445067</v>
-      </c>
-      <c r="L34">
-        <f ca="1"/>
-        <v>93.858800783682781</v>
-      </c>
-      <c r="M34">
-        <f ca="1"/>
-        <v>79.928361747160125</v>
-      </c>
-      <c r="N34">
-        <f ca="1"/>
-        <v>-0.77561951891036141</v>
-      </c>
-      <c r="O34">
-        <f ca="1"/>
-        <v>7.12964383781663</v>
-      </c>
-      <c r="P34">
-        <f ca="1"/>
-        <v>3.3306690738754696E-15</v>
-      </c>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C35">
-        <f ca="1"/>
-        <v>-0.37171050010367634</v>
-      </c>
-      <c r="J35">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="K35">
-        <f ca="1"/>
-        <v>-0.37171050010367634</v>
-      </c>
-      <c r="L35">
-        <f ca="1"/>
-        <v>92.657331984412224</v>
-      </c>
-      <c r="M35">
-        <f ca="1"/>
-        <v>84.45211046548701</v>
-      </c>
-      <c r="N35">
-        <f ca="1"/>
-        <v>-0.82444186919223572</v>
-      </c>
-      <c r="O35">
-        <f ca="1"/>
-        <v>8.0615264898926711</v>
-      </c>
-      <c r="P35">
-        <f ca="1"/>
-        <v>4.4408920985006262E-15</v>
-      </c>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C36">
-        <f ca="1"/>
-        <v>-0.28726441255383278</v>
-      </c>
-      <c r="J36">
-        <v>0.1</v>
-      </c>
-      <c r="K36">
-        <f ca="1"/>
-        <v>-0.28726441255383278</v>
-      </c>
-      <c r="L36">
-        <f ca="1"/>
-        <v>94.227993040976457</v>
-      </c>
-      <c r="M36">
-        <f ca="1"/>
-        <v>79.033738904921265</v>
-      </c>
-      <c r="N36">
-        <f ca="1"/>
-        <v>-0.76693908911912645</v>
-      </c>
-      <c r="O36">
-        <f ca="1"/>
-        <v>6.7666077525513941</v>
-      </c>
-      <c r="P36">
-        <f ca="1"/>
-        <v>5.3290705182007514E-15</v>
-      </c>
-    </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C37">
-        <f ca="1"/>
-        <v>-0.35025956360869043</v>
-      </c>
-      <c r="J37">
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="K37">
-        <f ca="1"/>
-        <v>-0.35025956360869043</v>
-      </c>
-      <c r="L37">
-        <f ca="1"/>
-        <v>93.040815504379026</v>
-      </c>
-      <c r="M37">
-        <f ca="1"/>
-        <v>83.733052997070871</v>
-      </c>
-      <c r="N37">
-        <f ca="1"/>
-        <v>-0.81744718136524863</v>
-      </c>
-      <c r="O37">
-        <f ca="1"/>
-        <v>7.6771006110921149</v>
-      </c>
-      <c r="P37">
-        <f ca="1"/>
-        <v>4.4408920985006262E-15</v>
-      </c>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C38">
-        <f ca="1"/>
-        <v>-0.38372640809910502</v>
-      </c>
-      <c r="J38">
-        <v>0.108</v>
-      </c>
-      <c r="K38">
-        <f ca="1"/>
-        <v>-0.38372640809910502</v>
-      </c>
-      <c r="L38">
-        <f ca="1"/>
-        <v>92.4127452155127</v>
-      </c>
-      <c r="M38">
-        <f ca="1"/>
-        <v>86.148074525501897</v>
-      </c>
-      <c r="N38">
-        <f ca="1"/>
-        <v>-0.84358017333295865</v>
-      </c>
-      <c r="O38">
-        <f ca="1"/>
-        <v>8.1905148984251497</v>
-      </c>
-      <c r="P38">
-        <f ca="1"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C39">
-        <f ca="1"/>
-        <v>-0.34647470964705213</v>
-      </c>
-      <c r="J39">
-        <v>0.112</v>
-      </c>
-      <c r="K39">
-        <f ca="1"/>
-        <v>-0.34647470964705213</v>
-      </c>
-      <c r="L39">
-        <f ca="1"/>
-        <v>93.09637473569866</v>
-      </c>
-      <c r="M39">
-        <f ca="1"/>
-        <v>84.203623678721954</v>
-      </c>
-      <c r="N39">
-        <f ca="1"/>
-        <v>-0.82269374405684292</v>
-      </c>
-      <c r="O39">
-        <f ca="1"/>
-        <v>7.6138185892911423</v>
-      </c>
-      <c r="P39">
-        <f ca="1"/>
-        <v>6.8833827526759706E-15</v>
-      </c>
-    </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C40">
-        <f ca="1"/>
-        <v>-0.348919802950858</v>
-      </c>
-      <c r="J40">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="K40">
-        <f ca="1"/>
-        <v>-0.348919802950858</v>
-      </c>
-      <c r="L40">
-        <f ca="1"/>
-        <v>93.043416229842791</v>
-      </c>
-      <c r="M40">
-        <f ca="1"/>
-        <v>84.743969327271202</v>
-      </c>
-      <c r="N40">
-        <f ca="1"/>
-        <v>-0.82850120116067982</v>
-      </c>
-      <c r="O40">
-        <f ca="1"/>
-        <v>7.657387220753364</v>
-      </c>
-      <c r="P40">
-        <f ca="1"/>
-        <v>5.5511151231257827E-15</v>
-      </c>
-    </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C41">
-        <f ca="1"/>
-        <v>-0.33200941542744944</v>
-      </c>
-      <c r="J41">
-        <v>0.12</v>
-      </c>
-      <c r="K41">
-        <f ca="1"/>
-        <v>-0.33200941542744944</v>
-      </c>
-      <c r="L41">
-        <f ca="1"/>
-        <v>93.351160619818032</v>
-      </c>
-      <c r="M41">
-        <f ca="1"/>
-        <v>84.016180025706419</v>
-      </c>
-      <c r="N41">
-        <f ca="1"/>
-        <v>-0.82070494778008418</v>
-      </c>
-      <c r="O41">
-        <f ca="1"/>
-        <v>7.4024206240084141</v>
-      </c>
-      <c r="P41">
-        <f ca="1"/>
-        <v>3.3306690738754696E-16</v>
-      </c>
-    </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C42">
-        <f ca="1"/>
-        <v>-0.30759438424939078</v>
-      </c>
-      <c r="J42">
-        <v>0.124</v>
-      </c>
-      <c r="K42">
-        <f ca="1"/>
-        <v>-0.30759438424939078</v>
-      </c>
-      <c r="L42">
-        <f ca="1"/>
-        <v>93.800605305175068</v>
-      </c>
-      <c r="M42">
-        <f ca="1"/>
-        <v>82.707287817773405</v>
-      </c>
-      <c r="N42">
-        <f ca="1"/>
-        <v>-0.806750963115757</v>
-      </c>
-      <c r="O42">
-        <f ca="1"/>
-        <v>7.0335591469824266</v>
-      </c>
-      <c r="P42">
-        <f ca="1"/>
-        <v>-6.4392935428259079E-15</v>
-      </c>
-    </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C43">
-        <f ca="1"/>
-        <v>-0.22132718419161973</v>
-      </c>
-      <c r="J43">
-        <v>0.128</v>
-      </c>
-      <c r="K43">
-        <f ca="1"/>
-        <v>-0.22132718419161973</v>
-      </c>
-      <c r="L43">
-        <f ca="1"/>
-        <v>95.42539606404732</v>
-      </c>
-      <c r="M43">
-        <f ca="1"/>
-        <v>76.090235501126173</v>
-      </c>
-      <c r="N43">
-        <f ca="1"/>
-        <v>-0.73740828716599183</v>
-      </c>
-      <c r="O43">
-        <f ca="1"/>
-        <v>5.7227576374006617</v>
-      </c>
-      <c r="P43">
-        <f ca="1"/>
-        <v>1.7763568394002505E-15</v>
-      </c>
-    </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C44">
-        <f ca="1"/>
-        <v>-0.3312022368848313</v>
-      </c>
-      <c r="J44">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="K44">
-        <f ca="1"/>
-        <v>-0.3312022368848313</v>
-      </c>
-      <c r="L44">
-        <f ca="1"/>
-        <v>93.343826840115824</v>
-      </c>
-      <c r="M44">
-        <f ca="1"/>
-        <v>85.063385713758493</v>
-      </c>
-      <c r="N44">
-        <f ca="1"/>
-        <v>-0.83353837435431755</v>
-      </c>
-      <c r="O44">
-        <f ca="1"/>
-        <v>7.2577240334374409</v>
-      </c>
-      <c r="P44">
-        <f ca="1"/>
-        <v>-7.1054273576010019E-15</v>
-      </c>
-    </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C45">
-        <f ca="1"/>
-        <v>-0.46587678117013787</v>
-      </c>
-      <c r="J45">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="K45">
-        <f ca="1"/>
-        <v>-0.46587678117013787</v>
-      </c>
-      <c r="L45">
-        <f ca="1"/>
-        <v>90.855908613875641</v>
-      </c>
-      <c r="M45">
-        <f ca="1"/>
-        <v>92.662355520248468</v>
-      </c>
-      <c r="N45">
-        <f ca="1"/>
-        <v>-0.91717597065842238</v>
-      </c>
-      <c r="O45">
-        <f ca="1"/>
-        <v>9.3314993472641561</v>
-      </c>
-      <c r="P45">
-        <f ca="1"/>
-        <v>-3.5527136788005009E-15</v>
-      </c>
-    </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C46">
-        <f ca="1"/>
-        <v>-0.56694942095414791</v>
-      </c>
-      <c r="J46">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K46">
-        <f ca="1"/>
-        <v>-0.56694942095414791</v>
-      </c>
-      <c r="L46">
-        <f ca="1"/>
-        <v>89.030615218271691</v>
-      </c>
-      <c r="M46">
-        <f ca="1"/>
-        <v>96.220718167740301</v>
-      </c>
-      <c r="N46">
-        <f ca="1"/>
-        <v>-0.9571438248484444</v>
-      </c>
-      <c r="O46">
-        <f ca="1"/>
-        <v>11.00561458911362</v>
-      </c>
-      <c r="P46">
-        <f ca="1"/>
-        <v>5.3290705182007514E-15</v>
-      </c>
-    </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C47">
-        <f ca="1"/>
-        <v>-0.51581383340586306</v>
-      </c>
-      <c r="J47">
-        <v>0.14400000000000002</v>
-      </c>
-      <c r="K47">
-        <f ca="1"/>
-        <v>-0.51581383340586306</v>
-      </c>
-      <c r="L47">
-        <f ca="1"/>
-        <v>89.938618349126813</v>
-      </c>
-      <c r="M47">
-        <f ca="1"/>
-        <v>95.106349910169399</v>
-      </c>
-      <c r="N47">
-        <f ca="1"/>
-        <v>-0.94475350489439403</v>
-      </c>
-      <c r="O47">
-        <f ca="1"/>
-        <v>10.136524999472584</v>
-      </c>
-      <c r="P47">
-        <f ca="1"/>
-        <v>-5.1070259132757201E-15</v>
-      </c>
-    </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C48">
-        <f ca="1"/>
-        <v>-0.48255722376310484</v>
-      </c>
-      <c r="J48">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="K48">
-        <f ca="1"/>
-        <v>-0.48255722376310484</v>
-      </c>
-      <c r="L48">
-        <f ca="1"/>
-        <v>90.531580101606735</v>
-      </c>
-      <c r="M48">
-        <f ca="1"/>
-        <v>94.351351721434952</v>
-      </c>
-      <c r="N48">
-        <f ca="1"/>
-        <v>-0.93641389359094518</v>
-      </c>
-      <c r="O48">
-        <f ca="1"/>
-        <v>9.5763223055488567</v>
-      </c>
-      <c r="P48">
-        <f ca="1"/>
-        <v>3.1086244689504383E-15</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C49">
-        <f ca="1"/>
-        <v>-0.56280848901304892</v>
-      </c>
-      <c r="J49">
-        <v>0.152</v>
-      </c>
-      <c r="K49">
-        <f ca="1"/>
-        <v>-0.56280848901304892</v>
-      </c>
-      <c r="L49">
-        <f ca="1"/>
-        <v>89.082997217957328</v>
-      </c>
-      <c r="M49">
-        <f ca="1"/>
-        <v>96.919609883545235</v>
-      </c>
-      <c r="N49">
-        <f ca="1"/>
-        <v>-0.96524384141843667</v>
-      </c>
-      <c r="O49">
-        <f ca="1"/>
-        <v>10.932795443816204</v>
-      </c>
-      <c r="P49">
-        <f ca="1"/>
-        <v>-3.5527136788005009E-15</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C50">
-        <f ca="1"/>
-        <v>-0.50911028775681999</v>
-      </c>
-      <c r="J50">
-        <v>0.156</v>
-      </c>
-      <c r="K50">
-        <f ca="1"/>
-        <v>-0.50911028775681999</v>
-      </c>
-      <c r="L50">
-        <f ca="1"/>
-        <v>90.037669110504254</v>
-      </c>
-      <c r="M50">
-        <f ca="1"/>
-        <v>95.870768330182614</v>
-      </c>
-      <c r="N50">
-        <f ca="1"/>
-        <v>-0.95359492198588924</v>
-      </c>
-      <c r="O50">
-        <f ca="1"/>
-        <v>10.011304278959997</v>
-      </c>
-      <c r="P50">
-        <f ca="1"/>
-        <v>-6.8833827526759706E-15</v>
-      </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C51">
-        <f ca="1"/>
-        <v>-0.52288430523305762</v>
-      </c>
-      <c r="J51">
-        <v>0.16</v>
-      </c>
-      <c r="K51">
-        <f ca="1"/>
-        <v>-0.52288430523305762</v>
-      </c>
-      <c r="L51">
-        <f ca="1"/>
-        <v>89.782791446138162</v>
-      </c>
-      <c r="M51">
-        <f ca="1"/>
-        <v>96.564854013592154</v>
-      </c>
-      <c r="N51">
-        <f ca="1"/>
-        <v>-0.96132564267556542</v>
-      </c>
-      <c r="O51">
-        <f ca="1"/>
-        <v>10.25435432542713</v>
-      </c>
-      <c r="P51">
-        <f ca="1"/>
-        <v>1.3322676295501878E-15</v>
-      </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C52">
-        <f ca="1"/>
-        <v>-0.5374511732809153</v>
-      </c>
-      <c r="J52">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="K52">
-        <f ca="1"/>
-        <v>-0.5374511732809153</v>
-      </c>
-      <c r="L52">
-        <f ca="1"/>
-        <v>89.514439846303702</v>
-      </c>
-      <c r="M52">
-        <f ca="1"/>
-        <v>97.207694014433841</v>
-      </c>
-      <c r="N52">
-        <f ca="1"/>
-        <v>-0.96850705387520475</v>
-      </c>
-      <c r="O52">
-        <f ca="1"/>
-        <v>10.512327599601008</v>
-      </c>
-      <c r="P52">
-        <f ca="1"/>
-        <v>-5.5511151231257827E-16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C53">
-        <f ca="1"/>
-        <v>-0.63088134363429105</v>
-      </c>
-      <c r="J53">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K53">
-        <f ca="1"/>
-        <v>-0.63088134363429105</v>
-      </c>
-      <c r="L53">
-        <f ca="1"/>
-        <v>87.850272566303786</v>
-      </c>
-      <c r="M53">
-        <f ca="1"/>
-        <v>98.85259699381335</v>
-      </c>
-      <c r="N53">
-        <f ca="1"/>
-        <v>-0.9872309909937611</v>
-      </c>
-      <c r="O53">
-        <f ca="1"/>
-        <v>12.124085349109237</v>
-      </c>
-      <c r="P53">
-        <f ca="1"/>
-        <v>-6.6613381477509392E-16</v>
-      </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C54">
-        <f ca="1"/>
-        <v>-0.57718042715429074</v>
-      </c>
-      <c r="J54">
-        <v>0.17200000000000001</v>
-      </c>
-      <c r="K54">
-        <f ca="1"/>
-        <v>-0.57718042715429074</v>
-      </c>
-      <c r="L54">
-        <f ca="1"/>
-        <v>88.791781989940858</v>
-      </c>
-      <c r="M54">
-        <f ca="1"/>
-        <v>98.401317441876103</v>
-      </c>
-      <c r="N54">
-        <f ca="1"/>
-        <v>-0.98214854370164151</v>
-      </c>
-      <c r="O54">
-        <f ca="1"/>
-        <v>11.194598067782053</v>
-      </c>
-      <c r="P54">
-        <f ca="1"/>
-        <v>-9.9920072216264089E-16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C55">
-        <f ca="1"/>
-        <v>-0.58629812730898301</v>
-      </c>
-      <c r="J55">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="K55">
-        <f ca="1"/>
-        <v>-0.58629812730898301</v>
-      </c>
-      <c r="L55">
-        <f ca="1"/>
-        <v>88.622924043422572</v>
-      </c>
-      <c r="M55">
-        <f ca="1"/>
-        <v>98.728292186428888</v>
-      </c>
-      <c r="N55">
-        <f ca="1"/>
-        <v>-0.9858380489631986</v>
-      </c>
-      <c r="O55">
-        <f ca="1"/>
-        <v>11.360441654047435</v>
-      </c>
-      <c r="P55">
-        <f ca="1"/>
-        <v>-3.4972025275692431E-15</v>
-      </c>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C56">
-        <f ca="1"/>
-        <v>-0.59828999102452241</v>
-      </c>
-      <c r="J56">
-        <v>0.18</v>
-      </c>
-      <c r="K56">
-        <f ca="1"/>
-        <v>-0.59828999102452241</v>
-      </c>
-      <c r="L56">
-        <f ca="1"/>
-        <v>88.403555355034086</v>
-      </c>
-      <c r="M56">
-        <f ca="1"/>
-        <v>99.039446853400875</v>
-      </c>
-      <c r="N56">
-        <f ca="1"/>
-        <v>-0.98935775657815106</v>
-      </c>
-      <c r="O56">
-        <f ca="1"/>
-        <v>11.576703653811961</v>
-      </c>
-      <c r="P56">
-        <f ca="1"/>
-        <v>-2.2759572004815709E-15</v>
-      </c>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C57">
-        <f ca="1"/>
-        <v>-0.5288186887017432</v>
-      </c>
-      <c r="J57">
-        <v>0.184</v>
-      </c>
-      <c r="K57">
-        <f ca="1"/>
-        <v>-0.5288186887017432</v>
-      </c>
-      <c r="L57">
-        <f ca="1"/>
-        <v>89.633259264055226</v>
-      </c>
-      <c r="M57">
-        <f ca="1"/>
-        <v>98.40919190417145</v>
-      </c>
-      <c r="N57">
-        <f ca="1"/>
-        <v>-0.98232627122991978</v>
-      </c>
-      <c r="O57">
-        <f ca="1"/>
-        <v>10.360086553127417</v>
-      </c>
-      <c r="P57">
-        <f ca="1"/>
-        <v>4.6629367034256575E-15</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C58">
-        <f ca="1"/>
-        <v>-0.51227315439683441</v>
-      </c>
-      <c r="J58">
-        <v>0.188</v>
-      </c>
-      <c r="K58">
-        <f ca="1"/>
-        <v>-0.51227315439683441</v>
-      </c>
-      <c r="L58">
-        <f ca="1"/>
-        <v>89.923162448793548</v>
-      </c>
-      <c r="M58">
-        <f ca="1"/>
-        <v>98.423192559854797</v>
-      </c>
-      <c r="N58">
-        <f ca="1"/>
-        <v>-0.98248196699619483</v>
-      </c>
-      <c r="O58">
-        <f ca="1"/>
-        <v>10.075307038645747</v>
-      </c>
-      <c r="P58">
-        <f ca="1"/>
-        <v>-5.8304056027580486E-15</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C59">
-        <f ca="1"/>
-        <v>-0.49336676488424697</v>
-      </c>
-      <c r="J59">
-        <v>0.192</v>
-      </c>
-      <c r="K59">
-        <f ca="1"/>
-        <v>-0.49336676488424697</v>
-      </c>
-      <c r="L59">
-        <f ca="1"/>
-        <v>90.256609772825257</v>
-      </c>
-      <c r="M59">
-        <f ca="1"/>
-        <v>98.408664219523615</v>
-      </c>
-      <c r="N59">
-        <f ca="1"/>
-        <v>-0.98232099994494237</v>
-      </c>
-      <c r="O59">
-        <f ca="1"/>
-        <v>9.7477010558414463</v>
-      </c>
-      <c r="P59">
-        <f ca="1"/>
-        <v>6.7047062346503594E-15</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C60">
-        <f ca="1"/>
-        <v>-0.41816690737873102</v>
-      </c>
-      <c r="J60">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="K60">
-        <f ca="1"/>
-        <v>-0.41816690737873102</v>
-      </c>
-      <c r="L60">
-        <f ca="1"/>
-        <v>91.616996384079954</v>
-      </c>
-      <c r="M60">
-        <f ca="1"/>
-        <v>97.151626765397168</v>
-      </c>
-      <c r="N60">
-        <f ca="1"/>
-        <v>-0.96860042948597813</v>
-      </c>
-      <c r="O60">
-        <f ca="1"/>
-        <v>8.411364719562016</v>
-      </c>
-      <c r="P60">
-        <f ca="1"/>
-        <v>5.773159728050814E-15</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C61">
-        <f ca="1"/>
-        <v>-0.2994315317014945</v>
-      </c>
-      <c r="J61">
-        <v>0.2</v>
-      </c>
-      <c r="K61">
-        <f ca="1"/>
-        <v>-0.2994315317014945</v>
-      </c>
-      <c r="L61">
-        <f ca="1"/>
-        <v>93.811165081461652</v>
-      </c>
-      <c r="M61">
-        <f ca="1"/>
-        <v>92.607818502809138</v>
-      </c>
-      <c r="N61">
-        <f ca="1"/>
-        <v>-0.9201647421278436</v>
-      </c>
-      <c r="O61">
-        <f ca="1"/>
-        <v>6.2860919769134114</v>
-      </c>
-      <c r="P61">
-        <f ca="1"/>
-        <v>6.2172489379008766E-15</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C62">
-        <f ca="1"/>
-        <v>-0.2858717020618361</v>
-      </c>
-      <c r="J62">
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="K62">
-        <f ca="1"/>
-        <v>-0.2858717020618361</v>
-      </c>
-      <c r="L62">
-        <f ca="1"/>
-        <v>94.058398083313932</v>
-      </c>
-      <c r="M62">
-        <f ca="1"/>
-        <v>92.612996949345472</v>
-      </c>
-      <c r="N62">
-        <f ca="1"/>
-        <v>-0.92021979778094698</v>
-      </c>
-      <c r="O62">
-        <f ca="1"/>
-        <v>6.0585968855185115</v>
-      </c>
-      <c r="P62">
-        <f ca="1"/>
-        <v>7.0256300777060687E-17</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C63">
-        <f ca="1"/>
-        <v>-0.22294642482220459</v>
-      </c>
-      <c r="J63">
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="K63">
-        <f ca="1"/>
-        <v>-0.22294642482220459</v>
-      </c>
-      <c r="L63">
-        <f ca="1"/>
-        <v>95.24198857529116</v>
-      </c>
-      <c r="M63">
-        <f ca="1"/>
-        <v>88.665365576165584</v>
-      </c>
-      <c r="N63">
-        <f ca="1"/>
-        <v>-0.87877136277626211</v>
-      </c>
-      <c r="O63">
-        <f ca="1"/>
-        <v>4.9694334823357877</v>
-      </c>
-      <c r="P63">
-        <f ca="1"/>
-        <v>-6.2172489379008766E-15</v>
-      </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C64">
-        <f ca="1"/>
-        <v>-0.22783116813625501</v>
-      </c>
-      <c r="J64">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="K64">
-        <f ca="1"/>
-        <v>-0.22783116813625501</v>
-      </c>
-      <c r="L64">
-        <f ca="1"/>
-        <v>95.14137586342531</v>
-      </c>
-      <c r="M64">
-        <f ca="1"/>
-        <v>90.286046548072875</v>
-      </c>
-      <c r="N64">
-        <f ca="1"/>
-        <v>-0.89580581237507562</v>
-      </c>
-      <c r="O64">
-        <f ca="1"/>
-        <v>5.0578490522547526</v>
-      </c>
-      <c r="P64">
-        <f ca="1"/>
-        <v>-4.4408920985006262E-16</v>
-      </c>
-    </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C65">
-        <f ca="1"/>
-        <v>-0.1600746841068077</v>
-      </c>
-      <c r="J65">
-        <v>0.216</v>
-      </c>
-      <c r="K65">
-        <f ca="1"/>
-        <v>-0.1600746841068077</v>
-      </c>
-      <c r="L65">
-        <f ca="1"/>
-        <v>96.431725403138998</v>
-      </c>
-      <c r="M65">
-        <f ca="1"/>
-        <v>84.247465921905771</v>
-      </c>
-      <c r="N65">
-        <f ca="1"/>
-        <v>-0.83318554294691349</v>
-      </c>
-      <c r="O65">
-        <f ca="1"/>
-        <v>3.9019464345837349</v>
-      </c>
-      <c r="P65">
-        <f ca="1"/>
-        <v>-6.2172489379008766E-15</v>
-      </c>
-    </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C66">
-        <f ca="1"/>
-        <v>-0.11503561330813133</v>
-      </c>
-      <c r="J66">
-        <v>0.22</v>
-      </c>
-      <c r="K66">
-        <f ca="1"/>
-        <v>-0.11503561330813133</v>
-      </c>
-      <c r="L66">
-        <f ca="1"/>
-        <v>97.296504476077644</v>
-      </c>
-      <c r="M66">
-        <f ca="1"/>
-        <v>79.120541210621226</v>
-      </c>
-      <c r="N66">
-        <f ca="1"/>
-        <v>-0.78049172070846806</v>
-      </c>
-      <c r="O66">
-        <f ca="1"/>
-        <v>3.1814250131682229</v>
-      </c>
-      <c r="P66">
-        <f ca="1"/>
-        <v>-8.8817841970012523E-16</v>
-      </c>
-    </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C67">
-        <f ca="1"/>
-        <v>-7.1797346478312679E-2</v>
-      </c>
-      <c r="J67">
-        <v>0.224</v>
-      </c>
-      <c r="K67">
-        <f ca="1"/>
-        <v>-7.1797346478312679E-2</v>
-      </c>
-      <c r="L67">
-        <f ca="1"/>
-        <v>98.133688430013336</v>
-      </c>
-      <c r="M67">
-        <f ca="1"/>
-        <v>72.693967894557503</v>
-      </c>
-      <c r="N67">
-        <f ca="1"/>
-        <v>-0.71500377850555163</v>
-      </c>
-      <c r="O67">
-        <f ca="1"/>
-        <v>2.5280098684114307</v>
-      </c>
-      <c r="P67">
-        <f ca="1"/>
-        <v>1.7763568394002505E-15</v>
-      </c>
-    </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C68">
-        <f ca="1"/>
-        <v>-5.3812977654086082E-2</v>
-      </c>
-      <c r="J68">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="K68">
-        <f ca="1"/>
-        <v>-5.3812977654086082E-2</v>
-      </c>
-      <c r="L68">
-        <f ca="1"/>
-        <v>98.479419814773422</v>
-      </c>
-      <c r="M68">
-        <f ca="1"/>
-        <v>70.43427813402802</v>
-      </c>
-      <c r="N68">
-        <f ca="1"/>
-        <v>-0.69205797150567638</v>
-      </c>
-      <c r="O68">
-        <f ca="1"/>
-        <v>2.2808106219600148</v>
-      </c>
-      <c r="P68">
-        <f ca="1"/>
-        <v>1.3322676295501878E-15</v>
-      </c>
-    </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C69">
-        <f ca="1"/>
-        <v>-0.12187154581589391</v>
-      </c>
-      <c r="J69">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="K69">
-        <f ca="1"/>
-        <v>-0.12187154581589391</v>
-      </c>
-      <c r="L69">
-        <f ca="1"/>
-        <v>97.140256440934962</v>
-      </c>
-      <c r="M69">
-        <f ca="1"/>
-        <v>86.47751549586215</v>
-      </c>
-      <c r="N69">
-        <f ca="1"/>
-        <v>-0.85721336587700003</v>
-      </c>
-      <c r="O69">
-        <f ca="1"/>
-        <v>3.2075893099733577</v>
-      </c>
-      <c r="P69">
-        <f ca="1"/>
-        <v>-3.5527136788005009E-15</v>
-      </c>
-    </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C70">
-        <f ca="1"/>
-        <v>-0.20015832132054789</v>
-      </c>
-      <c r="J70">
-        <v>0.23600000000000002</v>
-      </c>
-      <c r="K70">
-        <f ca="1"/>
-        <v>-0.20015832132054789</v>
-      </c>
-      <c r="L70">
-        <f ca="1"/>
-        <v>95.62349196521879</v>
-      </c>
-      <c r="M70">
-        <f ca="1"/>
-        <v>97.252645173955599</v>
-      </c>
-      <c r="N70">
-        <f ca="1"/>
-        <v>-0.96989623759238031</v>
-      </c>
-      <c r="O70">
-        <f ca="1"/>
-        <v>4.5077800914446868</v>
-      </c>
-      <c r="P70">
-        <f ca="1"/>
-        <v>-3.5527136788005009E-15</v>
-      </c>
-    </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C71">
-        <f ca="1"/>
-        <v>-0.10822702433889336</v>
-      </c>
-      <c r="J71">
-        <v>0.24</v>
-      </c>
-      <c r="K71">
-        <f ca="1"/>
-        <v>-0.10822702433889336</v>
-      </c>
-      <c r="L71">
-        <f ca="1"/>
-        <v>97.390121264961778</v>
-      </c>
-      <c r="M71">
-        <f ca="1"/>
-        <v>90.96019913763331</v>
-      </c>
-      <c r="N71">
-        <f ca="1"/>
-        <v>-0.90528551573895</v>
-      </c>
-      <c r="O71">
-        <f ca="1"/>
-        <v>2.7943329804035102</v>
-      </c>
-      <c r="P71">
-        <f ca="1"/>
-        <v>-4.4408920985006262E-15</v>
-      </c>
-    </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C72">
-        <f ca="1"/>
-        <v>-0.21834586888049662</v>
-      </c>
-      <c r="J72">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="K72">
-        <f ca="1"/>
-        <v>-0.21834586888049662</v>
-      </c>
-      <c r="L72">
-        <f ca="1"/>
-        <v>95.261049469890509</v>
-      </c>
-      <c r="M72">
-        <f ca="1"/>
-        <v>99.898424027326939</v>
-      </c>
-      <c r="N72">
-        <f ca="1"/>
-        <v>-0.9991142625293028</v>
-      </c>
-      <c r="O72">
-        <f ca="1"/>
-        <v>4.7217508384498501</v>
-      </c>
-      <c r="P72">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C73">
-        <f ca="1"/>
-        <v>-0.15756547956605738</v>
-      </c>
-      <c r="J73">
-        <v>0.248</v>
-      </c>
-      <c r="K73">
-        <f ca="1"/>
-        <v>-0.15756547956605738</v>
-      </c>
-      <c r="L73">
-        <f ca="1"/>
-        <v>96.418403403830638</v>
-      </c>
-      <c r="M73">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <f ca="1"/>
-        <v>3.5654220162558659</v>
+        <v>0.55204792587665086</v>
       </c>
     </row>
   </sheetData>

--- a/xls/hedge.xlsx
+++ b/xls/hedge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\FRE6233\Spring2023\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6233\Spring2023\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05462B9-6410-4C42-B61D-2E7244A0FC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB98373-500B-4638-807D-98EAEF30F0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{B180D58D-C4F9-40E2-AED8-646FAEC4081C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B180D58D-C4F9-40E2-AED8-646FAEC4081C}"/>
   </bookViews>
   <sheets>
     <sheet name="put" sheetId="2" r:id="rId1"/>
@@ -23,12 +23,14 @@
     <definedName name="f" localSheetId="0">put!$C$2</definedName>
     <definedName name="f">hedge!$C$2</definedName>
     <definedName name="forward">_xlfn.ANCHORARRAY(put!$B$10)</definedName>
+    <definedName name="hedge">hedge!$F$6</definedName>
     <definedName name="incr">put!$C$7</definedName>
     <definedName name="k" localSheetId="0">put!$C$4</definedName>
     <definedName name="k">hedge!$C$4</definedName>
     <definedName name="M_t">_xlfn.ANCHORARRAY(hedge!$M$11)</definedName>
     <definedName name="N_t">_xlfn.ANCHORARRAY(hedge!$N$11)</definedName>
     <definedName name="NABLA" comment="Adjacent differences.">_xlfn.LAMBDA(_xlpm.a,_xlpm.a - _xlfn.VSTACK(0, _xlfn.DROP(_xlpm.a,-1)))</definedName>
+    <definedName name="payoff">hedge!$C$7</definedName>
     <definedName name="s">put!$C$3</definedName>
     <definedName name="S_t">_xlfn.ANCHORARRAY(hedge!$L$11)</definedName>
     <definedName name="sigma">hedge!$C$3</definedName>
@@ -39,6 +41,7 @@
     <definedName name="time">_xlfn.ANCHORARRAY(hedge!$J$11)</definedName>
     <definedName name="V_0">hedge!$F$5</definedName>
     <definedName name="V_t">_xlfn.ANCHORARRAY(hedge!$O$11)</definedName>
+    <definedName name="value">hedge!$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -164,8 +167,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -253,7 +257,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -265,10 +269,9 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -2374,12 +2377,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" cm="1">
         <f t="array" ref="B10:B50">_xll.ARRAY.SEQUENCE(start,stop,incr)</f>
         <v>90</v>
@@ -2459,7 +2462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>90.5</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>91</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>91.5</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>92</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>92.5</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>93</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>93.5</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>94</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>94.5</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>95</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>95.5</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>96</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>96.5</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>97</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>97.5</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>98</v>
       </c>
@@ -2683,7 +2686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>98.5</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>99</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>99.5</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>100</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>100.5</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>101</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>101.5</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>102</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>102.5</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>103</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>103.5</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>104</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>104.5</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>105</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>105.5</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>106</v>
       </c>
@@ -2907,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>106.5</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>107</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>107.5</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>108</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>108.5</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>109</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>109.5</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>110</v>
       </c>
@@ -3027,19 +3030,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A63909C-82BF-46E9-986B-4B9C7D61A01A}">
-  <dimension ref="B2:P21"/>
+  <dimension ref="B2:P283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="8.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3055,7 +3064,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3080,18 +3089,18 @@
         <v>9</v>
       </c>
       <c r="F5" s="6">
-        <f>C6</f>
+        <f>value</f>
         <v>3.987761167674492</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" cm="1">
+      <c r="J5" s="5" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">_xlfn.TAKE(A_t,-1)</f>
-        <v>0.55204792587665086</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+        <v>4.0488919563609613</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3104,71 +3113,71 @@
       </c>
       <c r="F6" s="5">
         <f ca="1">H21</f>
-        <v>0.55204792587665086</v>
+        <v>4.0488919563609613</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J6" cm="1">
+      <c r="J6" s="5" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">MAX(k - _xlfn.TAKE(S_t, -1), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+        <v>2.4462972983764075</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
         <f ca="1">MAX(k - D21, 0)</f>
-        <v>0</v>
+        <v>2.4462972983764075</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="5">
-        <f ca="1">C7-F6</f>
-        <v>-0.55204792587665086</v>
+        <f ca="1">hedge-payoff</f>
+        <v>1.6025946579845538</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <f ca="1">J5-J6</f>
-        <v>0.55204792587665086</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+        <v>1.6025946579845538</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.MONTE.MEAN(C7)</f>
-        <v>3.9234923974224407</v>
+        <v>1.7808618621213637</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="4">
         <f t="array" aca="1" ref="F8:G8" ca="1">_xll.MONTE.STDEV(F7)</f>
-        <v>-6.6122454614262229E-3</v>
+        <v>2.3879547677788802</v>
       </c>
       <c r="G8" s="4">
         <f ca="1"/>
-        <v>1.0293130256814498</v>
-      </c>
-      <c r="I8" s="7" t="s">
+        <v>0.65763274917271219</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="4">
         <f t="array" aca="1" ref="J8:K8" ca="1">_xll.MONTE.STDEV(J7)</f>
-        <v>6.6122454614261942E-3</v>
-      </c>
-      <c r="K8" s="8">
-        <f ca="1"/>
-        <v>1.0293130256814498</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+        <v>1.4811494932623629E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <f ca="1"/>
+        <v>0.43426191193923741</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -3212,7 +3221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -3224,19 +3233,19 @@
         <f t="shared" ref="D11:D21" ca="1" si="0">f*EXP(sigma*C11 - sigma^2*B11/2)</f>
         <v>100</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <f ca="1">V_0 - F11*D11</f>
         <v>51.993880583837246</v>
       </c>
-      <c r="F11" s="2" cm="1">
+      <c r="F11" s="9" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">_xll.BLACK.PUT.DELTA(D11, sigma*SQRT(t - B11), k)</f>
         <v>-0.48006119416162751</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="8">
         <f ca="1">E11+F11*D11</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="8">
         <f ca="1">-E11-F11*D11</f>
         <v>-3.987761167674492</v>
       </c>
@@ -3252,46 +3261,46 @@
         <f t="array" aca="1" ref="L11:L21" ca="1">f*EXP(sigma*B_t - sigma^2*(time)/2)</f>
         <v>100</v>
       </c>
-      <c r="M11" cm="1">
+      <c r="M11" s="8" cm="1">
         <f t="array" aca="1" ref="M11:M21" ca="1">_xlfn.VSTACK(_xlfn.DROP(SUMSCAN(V_0,-NABLA(N_t)*S_t),-1),0)</f>
         <v>51.993880583837246</v>
       </c>
-      <c r="N11" cm="1">
+      <c r="N11" s="5" cm="1">
         <f t="array" aca="1" ref="N11:N21" ca="1">_xlfn.VSTACK(_xlfn.DROP(_xlfn.MAP(S_t,time,_xlfn.LAMBDA(_xlpm.s_,_xlpm.t_, _xll.BLACK.PUT.DELTA(_xlpm.s_, sigma*SQRT(t - _xlpm.t_), k))),-1),0)</f>
         <v>-0.48006119416162751</v>
       </c>
-      <c r="O11" cm="1">
+      <c r="O11" s="8" cm="1">
         <f t="array" aca="1" ref="O11:O21" ca="1">M_t + N_t*S_t</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="P11" cm="1">
+      <c r="P11" s="8" cm="1">
         <f t="array" aca="1" ref="P11:P21" ca="1">_xlfn.VSTACK(-O11, _xlfn.DROP(-NABLA(M_t)-NABLA(N_t)*S_t,1))</f>
         <v>-3.987761167674492</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C12">
-        <f ca="1"/>
-        <v>-0.13235679721649748</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="5">
+        <f ca="1"/>
+        <v>-6.5647893070099161E-2</v>
+      </c>
+      <c r="D12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>97.338911953138364</v>
-      </c>
-      <c r="E12">
+        <v>98.646288354248313</v>
+      </c>
+      <c r="E12" s="8">
         <f ca="1">E11 - (F12-F11)*D12</f>
-        <v>63.047645306995072</v>
-      </c>
-      <c r="F12" s="2" cm="1">
+        <v>57.742150197741154</v>
+      </c>
+      <c r="F12" s="9" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">_xll.BLACK.PUT.DELTA(D12, sigma*SQRT(t - B12), k)</f>
-        <v>-0.59362076146477771</v>
-      </c>
-      <c r="G12">
+        <v>-0.53833271871469857</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" ref="G12:G21" ca="1" si="1">E12+F12*D12</f>
-        <v>5.2652462732201215</v>
+        <v>4.6376255968845541</v>
       </c>
       <c r="H12">
         <f ca="1">-(E12-E11) - (F12-F11)*D12</f>
@@ -3300,54 +3309,54 @@
       <c r="J12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K12">
-        <f ca="1"/>
-        <v>-0.13235679721649748</v>
-      </c>
-      <c r="L12">
-        <f ca="1"/>
-        <v>97.338911953138364</v>
-      </c>
-      <c r="M12">
-        <f ca="1"/>
-        <v>63.047645306995072</v>
-      </c>
-      <c r="N12">
-        <f ca="1"/>
-        <v>-0.59362076146477771</v>
-      </c>
-      <c r="O12">
-        <f ca="1"/>
-        <v>5.2652462732201215</v>
-      </c>
-      <c r="P12">
-        <f ca="1"/>
-        <v>1.7763568394002505E-15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K12" s="8">
+        <f ca="1"/>
+        <v>-6.5647893070099161E-2</v>
+      </c>
+      <c r="L12" s="8">
+        <f ca="1"/>
+        <v>98.646288354248313</v>
+      </c>
+      <c r="M12" s="8">
+        <f ca="1"/>
+        <v>57.742150197741154</v>
+      </c>
+      <c r="N12" s="5">
+        <f ca="1"/>
+        <v>-0.53833271871469857</v>
+      </c>
+      <c r="O12" s="8">
+        <f ca="1"/>
+        <v>4.6376255968845541</v>
+      </c>
+      <c r="P12" s="8">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0.05</v>
       </c>
-      <c r="C13">
-        <f ca="1"/>
-        <v>-6.8380494488745641E-2</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="5">
+        <f ca="1"/>
+        <v>-0.10359233628222561</v>
+      </c>
+      <c r="D13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>98.54310701267147</v>
-      </c>
-      <c r="E13">
+        <v>97.851568048007408</v>
+      </c>
+      <c r="E13" s="8">
         <f t="shared" ref="E13:E20" ca="1" si="2">E12 - (F13-F12)*D13</f>
-        <v>58.503341737731255</v>
-      </c>
-      <c r="F13" s="2" cm="1">
+        <v>61.674146831085551</v>
+      </c>
+      <c r="F13" s="9" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">_xll.BLACK.PUT.DELTA(D13, sigma*SQRT(t - B13), k)</f>
-        <v>-0.54750588131715383</v>
-      </c>
-      <c r="G13">
+        <v>-0.57851599540389076</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5504110850279602</v>
+        <v>5.0654495399609942</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H21" ca="1" si="3">-(E13-E12) - (F13-F12)*D13</f>
@@ -3356,54 +3365,54 @@
       <c r="J13">
         <v>0.05</v>
       </c>
-      <c r="K13">
-        <f ca="1"/>
-        <v>-6.8380494488745641E-2</v>
-      </c>
-      <c r="L13">
-        <f ca="1"/>
-        <v>98.54310701267147</v>
-      </c>
-      <c r="M13">
-        <f ca="1"/>
-        <v>58.503341737731255</v>
-      </c>
-      <c r="N13">
-        <f ca="1"/>
-        <v>-0.54750588131715383</v>
-      </c>
-      <c r="O13">
-        <f ca="1"/>
-        <v>4.5504110850279602</v>
-      </c>
-      <c r="P13">
-        <f ca="1"/>
-        <v>-1.7763568394002505E-15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K13" s="8">
+        <f ca="1"/>
+        <v>-0.10359233628222561</v>
+      </c>
+      <c r="L13" s="8">
+        <f ca="1"/>
+        <v>97.851568048007408</v>
+      </c>
+      <c r="M13" s="8">
+        <f ca="1"/>
+        <v>61.674146831085551</v>
+      </c>
+      <c r="N13" s="5">
+        <f ca="1"/>
+        <v>-0.57851599540389076</v>
+      </c>
+      <c r="O13" s="8">
+        <f ca="1"/>
+        <v>5.0654495399609942</v>
+      </c>
+      <c r="P13" s="8">
+        <f ca="1"/>
+        <v>2.6645352591003757E-15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C14">
-        <f ca="1"/>
-        <v>7.1684329323322582E-2</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="5">
+        <f ca="1"/>
+        <v>9.0524139975948631E-2</v>
+      </c>
+      <c r="D14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>101.29196121157031</v>
-      </c>
-      <c r="E14">
+        <v>101.67434543777449</v>
+      </c>
+      <c r="E14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>45.850728930941706</v>
-      </c>
-      <c r="F14" s="2" cm="1">
+        <v>44.037041075487416</v>
+      </c>
+      <c r="F14" s="9" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">_xll.BLACK.PUT.DELTA(D14, sigma*SQRT(t - B14), k)</f>
-        <v>-0.42259357183622859</v>
-      </c>
-      <c r="G14">
+        <v>-0.40504936840315747</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0453972442474893</v>
+        <v>2.8539116731123997</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
@@ -3412,54 +3421,54 @@
       <c r="J14">
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="K14">
-        <f ca="1"/>
-        <v>7.1684329323322582E-2</v>
-      </c>
-      <c r="L14">
-        <f ca="1"/>
-        <v>101.29196121157031</v>
-      </c>
-      <c r="M14">
-        <f ca="1"/>
-        <v>45.850728930941706</v>
-      </c>
-      <c r="N14">
-        <f ca="1"/>
-        <v>-0.42259357183622859</v>
-      </c>
-      <c r="O14">
-        <f ca="1"/>
-        <v>3.0453972442474893</v>
-      </c>
-      <c r="P14">
-        <f ca="1"/>
-        <v>1.7763568394002505E-15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K14" s="8">
+        <f ca="1"/>
+        <v>9.0524139975948631E-2</v>
+      </c>
+      <c r="L14" s="8">
+        <f ca="1"/>
+        <v>101.67434543777449</v>
+      </c>
+      <c r="M14" s="8">
+        <f ca="1"/>
+        <v>44.037041075487416</v>
+      </c>
+      <c r="N14" s="5">
+        <f ca="1"/>
+        <v>-0.40504936840315747</v>
+      </c>
+      <c r="O14" s="8">
+        <f ca="1"/>
+        <v>2.8539116731123997</v>
+      </c>
+      <c r="P14" s="8">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0.1</v>
       </c>
-      <c r="C15">
-        <f ca="1"/>
-        <v>-0.1277805520716517</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="5">
+        <f ca="1"/>
+        <v>-1.6531827101697677E-2</v>
+      </c>
+      <c r="D15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>97.282009568338466</v>
-      </c>
-      <c r="E15">
+        <v>99.470768846730479</v>
+      </c>
+      <c r="E15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>65.481408115092478</v>
-      </c>
-      <c r="F15" s="2" cm="1">
+        <v>54.663244969496084</v>
+      </c>
+      <c r="F15" s="9" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">_xll.BLACK.PUT.DELTA(D15, sigma*SQRT(t - B15), k)</f>
-        <v>-0.62438503637583243</v>
-      </c>
-      <c r="G15">
+        <v>-0.51187677123928166</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7399770320513852</v>
+        <v>3.7464689795427617</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
@@ -3468,54 +3477,54 @@
       <c r="J15">
         <v>0.1</v>
       </c>
-      <c r="K15">
-        <f ca="1"/>
-        <v>-0.1277805520716517</v>
-      </c>
-      <c r="L15">
-        <f ca="1"/>
-        <v>97.282009568338466</v>
-      </c>
-      <c r="M15">
-        <f ca="1"/>
-        <v>65.481408115092478</v>
-      </c>
-      <c r="N15">
-        <f ca="1"/>
-        <v>-0.62438503637583243</v>
-      </c>
-      <c r="O15">
-        <f ca="1"/>
-        <v>4.7399770320513852</v>
-      </c>
-      <c r="P15">
+      <c r="K15" s="8">
+        <f ca="1"/>
+        <v>-1.6531827101697677E-2</v>
+      </c>
+      <c r="L15" s="8">
+        <f ca="1"/>
+        <v>99.470768846730479</v>
+      </c>
+      <c r="M15" s="8">
+        <f ca="1"/>
+        <v>54.663244969496084</v>
+      </c>
+      <c r="N15" s="5">
+        <f ca="1"/>
+        <v>-0.51187677123928166</v>
+      </c>
+      <c r="O15" s="8">
+        <f ca="1"/>
+        <v>3.7464689795427617</v>
+      </c>
+      <c r="P15" s="8">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>0.125</v>
       </c>
-      <c r="C16">
-        <f ca="1"/>
-        <v>6.3679352279137652E-2</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="5">
+        <f ca="1"/>
+        <v>-6.186123864335176E-2</v>
+      </c>
+      <c r="D16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>101.02884361767019</v>
-      </c>
-      <c r="E16">
+        <v>98.523779793003328</v>
+      </c>
+      <c r="E16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>45.694618612048075</v>
-      </c>
-      <c r="F16" s="2" cm="1">
+        <v>60.335419333305701</v>
+      </c>
+      <c r="F16" s="9" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">_xll.BLACK.PUT.DELTA(D16, sigma*SQRT(t - B16), k)</f>
-        <v>-0.42853216115215076</v>
-      </c>
-      <c r="G16">
+        <v>-0.56944839887807863</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4005099178651932</v>
+        <v>4.2312106787635599</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
@@ -3524,54 +3533,54 @@
       <c r="J16">
         <v>0.125</v>
       </c>
-      <c r="K16">
-        <f ca="1"/>
-        <v>6.3679352279137652E-2</v>
-      </c>
-      <c r="L16">
-        <f ca="1"/>
-        <v>101.02884361767019</v>
-      </c>
-      <c r="M16">
-        <f ca="1"/>
-        <v>45.694618612048075</v>
-      </c>
-      <c r="N16">
-        <f ca="1"/>
-        <v>-0.42853216115215076</v>
-      </c>
-      <c r="O16">
-        <f ca="1"/>
-        <v>2.4005099178651932</v>
-      </c>
-      <c r="P16">
-        <f ca="1"/>
-        <v>-3.5527136788005009E-15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K16" s="8">
+        <f ca="1"/>
+        <v>-6.186123864335176E-2</v>
+      </c>
+      <c r="L16" s="8">
+        <f ca="1"/>
+        <v>98.523779793003328</v>
+      </c>
+      <c r="M16" s="8">
+        <f ca="1"/>
+        <v>60.335419333305701</v>
+      </c>
+      <c r="N16" s="5">
+        <f ca="1"/>
+        <v>-0.56944839887807863</v>
+      </c>
+      <c r="O16" s="8">
+        <f ca="1"/>
+        <v>4.2312106787635599</v>
+      </c>
+      <c r="P16" s="8">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>0.15</v>
       </c>
-      <c r="C17">
-        <f ca="1"/>
-        <v>0.13452765527068214</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="5">
+        <f ca="1"/>
+        <v>-0.10971668107347299</v>
+      </c>
+      <c r="D17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>102.41935588344671</v>
-      </c>
-      <c r="E17">
+        <v>97.53651783455787</v>
+      </c>
+      <c r="E17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>36.734630560814111</v>
-      </c>
-      <c r="F17" s="2" cm="1">
+        <v>67.373825557110933</v>
+      </c>
+      <c r="F17" s="9" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">_xll.BLACK.PUT.DELTA(D17, sigma*SQRT(t - B17), k)</f>
-        <v>-0.34104881414271987</v>
-      </c>
-      <c r="G17">
+        <v>-0.6416101530606898</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8046306915034123</v>
+        <v>4.7934054202735581</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="3"/>
@@ -3580,54 +3589,54 @@
       <c r="J17">
         <v>0.15000000000000002</v>
       </c>
-      <c r="K17">
-        <f ca="1"/>
-        <v>0.13452765527068214</v>
-      </c>
-      <c r="L17">
-        <f ca="1"/>
-        <v>102.41935588344671</v>
-      </c>
-      <c r="M17">
-        <f ca="1"/>
-        <v>36.734630560814111</v>
-      </c>
-      <c r="N17">
-        <f ca="1"/>
-        <v>-0.34104881414271987</v>
-      </c>
-      <c r="O17">
-        <f ca="1"/>
-        <v>1.8046306915034123</v>
-      </c>
-      <c r="P17">
-        <f ca="1"/>
-        <v>-1.7763568394002505E-15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K17" s="8">
+        <f ca="1"/>
+        <v>-0.10971668107347299</v>
+      </c>
+      <c r="L17" s="8">
+        <f ca="1"/>
+        <v>97.53651783455787</v>
+      </c>
+      <c r="M17" s="8">
+        <f ca="1"/>
+        <v>67.373825557110948</v>
+      </c>
+      <c r="N17" s="5">
+        <f ca="1"/>
+        <v>-0.64161015306068991</v>
+      </c>
+      <c r="O17" s="8">
+        <f ca="1"/>
+        <v>4.7934054202735581</v>
+      </c>
+      <c r="P17" s="8">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C18">
-        <f ca="1"/>
-        <v>0.27482922828874706</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="5">
+        <f ca="1"/>
+        <v>2.9221330340527762E-2</v>
+      </c>
+      <c r="D18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>105.28132275347637</v>
-      </c>
-      <c r="E18">
+        <v>100.23470160082486</v>
+      </c>
+      <c r="E18" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>18.386022648865708</v>
-      </c>
-      <c r="F18" s="2" cm="1">
+        <v>50.375273742474207</v>
+      </c>
+      <c r="F18" s="9" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">_xll.BLACK.PUT.DELTA(D18, sigma*SQRT(t - B18), k)</f>
-        <v>-0.16676711410260014</v>
-      </c>
-      <c r="G18">
+        <v>-0.47202265947656319</v>
+      </c>
+      <c r="G18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82856028436404117</v>
+        <v>3.0622233210131284</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="3"/>
@@ -3636,54 +3645,54 @@
       <c r="J18">
         <v>0.17500000000000002</v>
       </c>
-      <c r="K18">
-        <f ca="1"/>
-        <v>0.27482922828874706</v>
-      </c>
-      <c r="L18">
-        <f ca="1"/>
-        <v>105.28132275347637</v>
-      </c>
-      <c r="M18">
-        <f ca="1"/>
-        <v>18.386022648865708</v>
-      </c>
-      <c r="N18">
-        <f ca="1"/>
-        <v>-0.16676711410260014</v>
-      </c>
-      <c r="O18">
-        <f ca="1"/>
-        <v>0.82856028436404117</v>
-      </c>
-      <c r="P18">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K18" s="8">
+        <f ca="1"/>
+        <v>2.9221330340527762E-2</v>
+      </c>
+      <c r="L18" s="8">
+        <f ca="1"/>
+        <v>100.23470160082486</v>
+      </c>
+      <c r="M18" s="8">
+        <f ca="1"/>
+        <v>50.375273742474207</v>
+      </c>
+      <c r="N18" s="5">
+        <f ca="1"/>
+        <v>-0.47202265947656319</v>
+      </c>
+      <c r="O18" s="8">
+        <f ca="1"/>
+        <v>3.0622233210131284</v>
+      </c>
+      <c r="P18" s="8">
+        <f ca="1"/>
+        <v>-3.5527136788005009E-15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>0.2</v>
       </c>
-      <c r="C19">
-        <f ca="1"/>
-        <v>0.40876607181823754</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="5">
+        <f ca="1"/>
+        <v>-0.14153484438954134</v>
+      </c>
+      <c r="D19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>108.08558860459681</v>
-      </c>
-      <c r="E19">
+        <v>96.820932632691651</v>
+      </c>
+      <c r="E19" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5893478318920291</v>
-      </c>
-      <c r="F19" s="2" cm="1">
+        <v>78.068749438934503</v>
+      </c>
+      <c r="F19" s="9" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">_xll.BLACK.PUT.DELTA(D19, sigma*SQRT(t - B19), k)</f>
-        <v>-3.912128272867621E-2</v>
-      </c>
-      <c r="G19">
+        <v>-0.75805043201951827</v>
+      </c>
+      <c r="G19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36090096119621418</v>
+        <v>4.673599628189919</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
@@ -3692,54 +3701,54 @@
       <c r="J19">
         <v>0.2</v>
       </c>
-      <c r="K19">
-        <f ca="1"/>
-        <v>0.40876607181823754</v>
-      </c>
-      <c r="L19">
-        <f ca="1"/>
-        <v>108.08558860459681</v>
-      </c>
-      <c r="M19">
-        <f ca="1"/>
-        <v>4.5893478318920291</v>
-      </c>
-      <c r="N19">
-        <f ca="1"/>
-        <v>-3.912128272867621E-2</v>
-      </c>
-      <c r="O19">
-        <f ca="1"/>
-        <v>0.36090096119621418</v>
-      </c>
-      <c r="P19">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K19" s="8">
+        <f ca="1"/>
+        <v>-0.14153484438954134</v>
+      </c>
+      <c r="L19" s="8">
+        <f ca="1"/>
+        <v>96.820932632691651</v>
+      </c>
+      <c r="M19" s="8">
+        <f ca="1"/>
+        <v>78.068749438934503</v>
+      </c>
+      <c r="N19" s="5">
+        <f ca="1"/>
+        <v>-0.75805043201951827</v>
+      </c>
+      <c r="O19" s="8">
+        <f ca="1"/>
+        <v>4.673599628189919</v>
+      </c>
+      <c r="P19" s="8">
+        <f ca="1"/>
+        <v>7.1054273576010019E-15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C20">
-        <f ca="1"/>
-        <v>0.31291072348218374</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="5">
+        <f ca="1"/>
+        <v>-5.4860050146336062E-2</v>
+      </c>
+      <c r="D20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>105.98020492523641</v>
-      </c>
-      <c r="E20">
+        <v>98.464706660860784</v>
+      </c>
+      <c r="E20" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8319697082375725</v>
-      </c>
-      <c r="F20" s="2" cm="1">
+        <v>70.58600418715308</v>
+      </c>
+      <c r="F20" s="9" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">_xll.BLACK.PUT.DELTA(D20, sigma*SQRT(t - B20), k)</f>
-        <v>-3.1974871526803672E-2</v>
-      </c>
-      <c r="G20">
+        <v>-0.68205624582289426</v>
+      </c>
+      <c r="G20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44326627136881269</v>
+        <v>3.4275360159938373</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
@@ -3748,42 +3757,42 @@
       <c r="J20">
         <v>0.22500000000000001</v>
       </c>
-      <c r="K20">
-        <f ca="1"/>
-        <v>0.31291072348218374</v>
-      </c>
-      <c r="L20">
-        <f ca="1"/>
-        <v>105.98020492523641</v>
-      </c>
-      <c r="M20">
-        <f ca="1"/>
-        <v>3.8319697082375725</v>
-      </c>
-      <c r="N20">
-        <f ca="1"/>
-        <v>-3.1974871526803672E-2</v>
-      </c>
-      <c r="O20">
-        <f ca="1"/>
-        <v>0.44326627136881269</v>
-      </c>
-      <c r="P20">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="K20" s="8">
+        <f ca="1"/>
+        <v>-5.4860050146336062E-2</v>
+      </c>
+      <c r="L20" s="8">
+        <f ca="1"/>
+        <v>98.464706660860784</v>
+      </c>
+      <c r="M20" s="8">
+        <f ca="1"/>
+        <v>70.58600418715308</v>
+      </c>
+      <c r="N20" s="5">
+        <f ca="1"/>
+        <v>-0.68205624582289426</v>
+      </c>
+      <c r="O20" s="8">
+        <f ca="1"/>
+        <v>3.4275360159938373</v>
+      </c>
+      <c r="P20" s="8">
+        <f ca="1"/>
+        <v>4.4408920985006262E-15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0.25</v>
       </c>
-      <c r="C21">
-        <f ca="1"/>
-        <v>0.15227169367065554</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="5">
+        <f ca="1"/>
+        <v>-9.8835813387592036E-2</v>
+      </c>
+      <c r="D21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>102.57810667390648</v>
+        <v>97.553702701623592</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3795,37 +3804,2133 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55204792587665086</v>
+        <v>4.0488919563609613</v>
       </c>
       <c r="J21">
         <v>0.25</v>
       </c>
-      <c r="K21">
-        <f ca="1"/>
-        <v>0.15227169367065554</v>
-      </c>
-      <c r="L21">
-        <f ca="1"/>
-        <v>102.57810667390648</v>
-      </c>
-      <c r="M21">
+      <c r="K21" s="8">
+        <f ca="1"/>
+        <v>-9.8835813387592036E-2</v>
+      </c>
+      <c r="L21" s="8">
+        <f ca="1"/>
+        <v>97.553702701623592</v>
+      </c>
+      <c r="M21" s="8">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="5">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="8">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="P21">
-        <f ca="1"/>
-        <v>0.55204792587665086</v>
-      </c>
+      <c r="P21" s="8">
+        <f ca="1"/>
+        <v>4.0488919563609613</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+    </row>
+    <row r="43" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+    </row>
+    <row r="44" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+    </row>
+    <row r="52" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+    </row>
+    <row r="53" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+    </row>
+    <row r="54" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+    </row>
+    <row r="55" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+    </row>
+    <row r="56" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+    </row>
+    <row r="58" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+    </row>
+    <row r="59" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+    </row>
+    <row r="60" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+    </row>
+    <row r="61" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+    </row>
+    <row r="62" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+    </row>
+    <row r="63" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+    </row>
+    <row r="64" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+    </row>
+    <row r="65" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+    </row>
+    <row r="66" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+    </row>
+    <row r="67" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+    </row>
+    <row r="68" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+    </row>
+    <row r="69" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+    </row>
+    <row r="70" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+    </row>
+    <row r="71" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+    </row>
+    <row r="72" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+    </row>
+    <row r="73" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+    </row>
+    <row r="74" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+    </row>
+    <row r="75" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+    </row>
+    <row r="76" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+    </row>
+    <row r="77" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+    </row>
+    <row r="78" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+    </row>
+    <row r="79" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+    </row>
+    <row r="80" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+    </row>
+    <row r="81" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+    </row>
+    <row r="82" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+    </row>
+    <row r="83" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+    </row>
+    <row r="84" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+    </row>
+    <row r="85" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+    </row>
+    <row r="86" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+    </row>
+    <row r="87" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+    </row>
+    <row r="88" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+    </row>
+    <row r="89" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+    </row>
+    <row r="90" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+    </row>
+    <row r="91" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+    </row>
+    <row r="92" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+    </row>
+    <row r="93" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+    </row>
+    <row r="94" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+    </row>
+    <row r="95" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+    </row>
+    <row r="96" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+    </row>
+    <row r="97" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+    </row>
+    <row r="98" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+    </row>
+    <row r="99" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+    </row>
+    <row r="100" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+    </row>
+    <row r="101" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+    </row>
+    <row r="102" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+    </row>
+    <row r="103" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+    </row>
+    <row r="104" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+    </row>
+    <row r="105" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+    </row>
+    <row r="106" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+    </row>
+    <row r="107" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+    </row>
+    <row r="108" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+    </row>
+    <row r="109" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+    </row>
+    <row r="110" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+    </row>
+    <row r="111" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+    </row>
+    <row r="112" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+    </row>
+    <row r="113" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+    </row>
+    <row r="114" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+    </row>
+    <row r="115" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+    </row>
+    <row r="116" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+    </row>
+    <row r="117" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+    </row>
+    <row r="118" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+    </row>
+    <row r="119" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+    </row>
+    <row r="120" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+    </row>
+    <row r="121" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+    </row>
+    <row r="122" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+    </row>
+    <row r="123" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+    </row>
+    <row r="124" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+    </row>
+    <row r="125" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+    </row>
+    <row r="126" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+    </row>
+    <row r="127" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+    </row>
+    <row r="128" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+    </row>
+    <row r="129" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+    </row>
+    <row r="130" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+    </row>
+    <row r="131" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+    </row>
+    <row r="132" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+    </row>
+    <row r="133" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="8"/>
+      <c r="O133" s="8"/>
+      <c r="P133" s="8"/>
+    </row>
+    <row r="134" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+    </row>
+    <row r="135" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+    </row>
+    <row r="136" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+    </row>
+    <row r="137" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+    </row>
+    <row r="138" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+    </row>
+    <row r="139" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K139" s="8"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="8"/>
+      <c r="N139" s="8"/>
+      <c r="O139" s="8"/>
+      <c r="P139" s="8"/>
+    </row>
+    <row r="140" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+    </row>
+    <row r="141" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+    </row>
+    <row r="142" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+    </row>
+    <row r="143" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
+      <c r="N143" s="8"/>
+      <c r="O143" s="8"/>
+      <c r="P143" s="8"/>
+    </row>
+    <row r="144" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K144" s="8"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="8"/>
+      <c r="P144" s="8"/>
+    </row>
+    <row r="145" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+    </row>
+    <row r="146" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+    </row>
+    <row r="147" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+    </row>
+    <row r="148" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+    </row>
+    <row r="149" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+    </row>
+    <row r="150" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+    </row>
+    <row r="151" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+    </row>
+    <row r="152" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+    </row>
+    <row r="153" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
+      <c r="O153" s="8"/>
+      <c r="P153" s="8"/>
+    </row>
+    <row r="154" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+    </row>
+    <row r="155" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8"/>
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
+    </row>
+    <row r="156" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K156" s="8"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="8"/>
+      <c r="N156" s="8"/>
+      <c r="O156" s="8"/>
+      <c r="P156" s="8"/>
+    </row>
+    <row r="157" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="8"/>
+      <c r="N157" s="8"/>
+      <c r="O157" s="8"/>
+      <c r="P157" s="8"/>
+    </row>
+    <row r="158" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="8"/>
+      <c r="N158" s="8"/>
+      <c r="O158" s="8"/>
+      <c r="P158" s="8"/>
+    </row>
+    <row r="159" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="8"/>
+      <c r="N159" s="8"/>
+      <c r="O159" s="8"/>
+      <c r="P159" s="8"/>
+    </row>
+    <row r="160" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K160" s="8"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="8"/>
+      <c r="N160" s="8"/>
+      <c r="O160" s="8"/>
+      <c r="P160" s="8"/>
+    </row>
+    <row r="161" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="8"/>
+      <c r="N161" s="8"/>
+      <c r="O161" s="8"/>
+      <c r="P161" s="8"/>
+    </row>
+    <row r="162" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="8"/>
+      <c r="N162" s="8"/>
+      <c r="O162" s="8"/>
+      <c r="P162" s="8"/>
+    </row>
+    <row r="163" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="8"/>
+      <c r="N163" s="8"/>
+      <c r="O163" s="8"/>
+      <c r="P163" s="8"/>
+    </row>
+    <row r="164" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K164" s="8"/>
+      <c r="L164" s="8"/>
+      <c r="M164" s="8"/>
+      <c r="N164" s="8"/>
+      <c r="O164" s="8"/>
+      <c r="P164" s="8"/>
+    </row>
+    <row r="165" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
+      <c r="M165" s="8"/>
+      <c r="N165" s="8"/>
+      <c r="O165" s="8"/>
+      <c r="P165" s="8"/>
+    </row>
+    <row r="166" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
+      <c r="M166" s="8"/>
+      <c r="N166" s="8"/>
+      <c r="O166" s="8"/>
+      <c r="P166" s="8"/>
+    </row>
+    <row r="167" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="8"/>
+      <c r="N167" s="8"/>
+      <c r="O167" s="8"/>
+      <c r="P167" s="8"/>
+    </row>
+    <row r="168" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="8"/>
+      <c r="N168" s="8"/>
+      <c r="O168" s="8"/>
+      <c r="P168" s="8"/>
+    </row>
+    <row r="169" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K169" s="8"/>
+      <c r="L169" s="8"/>
+      <c r="M169" s="8"/>
+      <c r="N169" s="8"/>
+      <c r="O169" s="8"/>
+      <c r="P169" s="8"/>
+    </row>
+    <row r="170" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="8"/>
+      <c r="N170" s="8"/>
+      <c r="O170" s="8"/>
+      <c r="P170" s="8"/>
+    </row>
+    <row r="171" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="8"/>
+      <c r="N171" s="8"/>
+      <c r="O171" s="8"/>
+      <c r="P171" s="8"/>
+    </row>
+    <row r="172" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K172" s="8"/>
+      <c r="L172" s="8"/>
+      <c r="M172" s="8"/>
+      <c r="N172" s="8"/>
+      <c r="O172" s="8"/>
+      <c r="P172" s="8"/>
+    </row>
+    <row r="173" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K173" s="8"/>
+      <c r="L173" s="8"/>
+      <c r="M173" s="8"/>
+      <c r="N173" s="8"/>
+      <c r="O173" s="8"/>
+      <c r="P173" s="8"/>
+    </row>
+    <row r="174" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K174" s="8"/>
+      <c r="L174" s="8"/>
+      <c r="M174" s="8"/>
+      <c r="N174" s="8"/>
+      <c r="O174" s="8"/>
+      <c r="P174" s="8"/>
+    </row>
+    <row r="175" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K175" s="8"/>
+      <c r="L175" s="8"/>
+      <c r="M175" s="8"/>
+      <c r="N175" s="8"/>
+      <c r="O175" s="8"/>
+      <c r="P175" s="8"/>
+    </row>
+    <row r="176" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K176" s="8"/>
+      <c r="L176" s="8"/>
+      <c r="M176" s="8"/>
+      <c r="N176" s="8"/>
+      <c r="O176" s="8"/>
+      <c r="P176" s="8"/>
+    </row>
+    <row r="177" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K177" s="8"/>
+      <c r="L177" s="8"/>
+      <c r="M177" s="8"/>
+      <c r="N177" s="8"/>
+      <c r="O177" s="8"/>
+      <c r="P177" s="8"/>
+    </row>
+    <row r="178" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K178" s="8"/>
+      <c r="L178" s="8"/>
+      <c r="M178" s="8"/>
+      <c r="N178" s="8"/>
+      <c r="O178" s="8"/>
+      <c r="P178" s="8"/>
+    </row>
+    <row r="179" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K179" s="8"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="8"/>
+      <c r="N179" s="8"/>
+      <c r="O179" s="8"/>
+      <c r="P179" s="8"/>
+    </row>
+    <row r="180" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K180" s="8"/>
+      <c r="L180" s="8"/>
+      <c r="M180" s="8"/>
+      <c r="N180" s="8"/>
+      <c r="O180" s="8"/>
+      <c r="P180" s="8"/>
+    </row>
+    <row r="181" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K181" s="8"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="8"/>
+      <c r="N181" s="8"/>
+      <c r="O181" s="8"/>
+      <c r="P181" s="8"/>
+    </row>
+    <row r="182" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K182" s="8"/>
+      <c r="L182" s="8"/>
+      <c r="M182" s="8"/>
+      <c r="N182" s="8"/>
+      <c r="O182" s="8"/>
+      <c r="P182" s="8"/>
+    </row>
+    <row r="183" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K183" s="8"/>
+      <c r="L183" s="8"/>
+      <c r="M183" s="8"/>
+      <c r="N183" s="8"/>
+      <c r="O183" s="8"/>
+      <c r="P183" s="8"/>
+    </row>
+    <row r="184" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K184" s="8"/>
+      <c r="L184" s="8"/>
+      <c r="M184" s="8"/>
+      <c r="N184" s="8"/>
+      <c r="O184" s="8"/>
+      <c r="P184" s="8"/>
+    </row>
+    <row r="185" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K185" s="8"/>
+      <c r="L185" s="8"/>
+      <c r="M185" s="8"/>
+      <c r="N185" s="8"/>
+      <c r="O185" s="8"/>
+      <c r="P185" s="8"/>
+    </row>
+    <row r="186" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K186" s="8"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="8"/>
+      <c r="N186" s="8"/>
+      <c r="O186" s="8"/>
+      <c r="P186" s="8"/>
+    </row>
+    <row r="187" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K187" s="8"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="8"/>
+      <c r="N187" s="8"/>
+      <c r="O187" s="8"/>
+      <c r="P187" s="8"/>
+    </row>
+    <row r="188" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K188" s="8"/>
+      <c r="L188" s="8"/>
+      <c r="M188" s="8"/>
+      <c r="N188" s="8"/>
+      <c r="O188" s="8"/>
+      <c r="P188" s="8"/>
+    </row>
+    <row r="189" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K189" s="8"/>
+      <c r="L189" s="8"/>
+      <c r="M189" s="8"/>
+      <c r="N189" s="8"/>
+      <c r="O189" s="8"/>
+      <c r="P189" s="8"/>
+    </row>
+    <row r="190" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K190" s="8"/>
+      <c r="L190" s="8"/>
+      <c r="M190" s="8"/>
+      <c r="N190" s="8"/>
+      <c r="O190" s="8"/>
+      <c r="P190" s="8"/>
+    </row>
+    <row r="191" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K191" s="8"/>
+      <c r="L191" s="8"/>
+      <c r="M191" s="8"/>
+      <c r="N191" s="8"/>
+      <c r="O191" s="8"/>
+      <c r="P191" s="8"/>
+    </row>
+    <row r="192" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K192" s="8"/>
+      <c r="L192" s="8"/>
+      <c r="M192" s="8"/>
+      <c r="N192" s="8"/>
+      <c r="O192" s="8"/>
+      <c r="P192" s="8"/>
+    </row>
+    <row r="193" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K193" s="8"/>
+      <c r="L193" s="8"/>
+      <c r="M193" s="8"/>
+      <c r="N193" s="8"/>
+      <c r="O193" s="8"/>
+      <c r="P193" s="8"/>
+    </row>
+    <row r="194" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K194" s="8"/>
+      <c r="L194" s="8"/>
+      <c r="M194" s="8"/>
+      <c r="N194" s="8"/>
+      <c r="O194" s="8"/>
+      <c r="P194" s="8"/>
+    </row>
+    <row r="195" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K195" s="8"/>
+      <c r="L195" s="8"/>
+      <c r="M195" s="8"/>
+      <c r="N195" s="8"/>
+      <c r="O195" s="8"/>
+      <c r="P195" s="8"/>
+    </row>
+    <row r="196" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K196" s="8"/>
+      <c r="L196" s="8"/>
+      <c r="M196" s="8"/>
+      <c r="N196" s="8"/>
+      <c r="O196" s="8"/>
+      <c r="P196" s="8"/>
+    </row>
+    <row r="197" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K197" s="8"/>
+      <c r="L197" s="8"/>
+      <c r="M197" s="8"/>
+      <c r="N197" s="8"/>
+      <c r="O197" s="8"/>
+      <c r="P197" s="8"/>
+    </row>
+    <row r="198" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K198" s="8"/>
+      <c r="L198" s="8"/>
+      <c r="M198" s="8"/>
+      <c r="N198" s="8"/>
+      <c r="O198" s="8"/>
+      <c r="P198" s="8"/>
+    </row>
+    <row r="199" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K199" s="8"/>
+      <c r="L199" s="8"/>
+      <c r="M199" s="8"/>
+      <c r="N199" s="8"/>
+      <c r="O199" s="8"/>
+      <c r="P199" s="8"/>
+    </row>
+    <row r="200" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K200" s="8"/>
+      <c r="L200" s="8"/>
+      <c r="M200" s="8"/>
+      <c r="N200" s="8"/>
+      <c r="O200" s="8"/>
+      <c r="P200" s="8"/>
+    </row>
+    <row r="201" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K201" s="8"/>
+      <c r="L201" s="8"/>
+      <c r="M201" s="8"/>
+      <c r="N201" s="8"/>
+      <c r="O201" s="8"/>
+      <c r="P201" s="8"/>
+    </row>
+    <row r="202" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K202" s="8"/>
+      <c r="L202" s="8"/>
+      <c r="M202" s="8"/>
+      <c r="N202" s="8"/>
+      <c r="O202" s="8"/>
+      <c r="P202" s="8"/>
+    </row>
+    <row r="203" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K203" s="8"/>
+      <c r="L203" s="8"/>
+      <c r="M203" s="8"/>
+      <c r="N203" s="8"/>
+      <c r="O203" s="8"/>
+      <c r="P203" s="8"/>
+    </row>
+    <row r="204" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K204" s="8"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="8"/>
+      <c r="N204" s="8"/>
+      <c r="O204" s="8"/>
+      <c r="P204" s="8"/>
+    </row>
+    <row r="205" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K205" s="8"/>
+      <c r="L205" s="8"/>
+      <c r="M205" s="8"/>
+      <c r="N205" s="8"/>
+      <c r="O205" s="8"/>
+      <c r="P205" s="8"/>
+    </row>
+    <row r="206" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K206" s="8"/>
+      <c r="L206" s="8"/>
+      <c r="M206" s="8"/>
+      <c r="N206" s="8"/>
+      <c r="O206" s="8"/>
+      <c r="P206" s="8"/>
+    </row>
+    <row r="207" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K207" s="8"/>
+      <c r="L207" s="8"/>
+      <c r="M207" s="8"/>
+      <c r="N207" s="8"/>
+      <c r="O207" s="8"/>
+      <c r="P207" s="8"/>
+    </row>
+    <row r="208" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K208" s="8"/>
+      <c r="L208" s="8"/>
+      <c r="M208" s="8"/>
+      <c r="N208" s="8"/>
+      <c r="O208" s="8"/>
+      <c r="P208" s="8"/>
+    </row>
+    <row r="209" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K209" s="8"/>
+      <c r="L209" s="8"/>
+      <c r="M209" s="8"/>
+      <c r="N209" s="8"/>
+      <c r="O209" s="8"/>
+      <c r="P209" s="8"/>
+    </row>
+    <row r="210" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K210" s="8"/>
+      <c r="L210" s="8"/>
+      <c r="M210" s="8"/>
+      <c r="N210" s="8"/>
+      <c r="O210" s="8"/>
+      <c r="P210" s="8"/>
+    </row>
+    <row r="211" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K211" s="8"/>
+      <c r="L211" s="8"/>
+      <c r="M211" s="8"/>
+      <c r="N211" s="8"/>
+      <c r="O211" s="8"/>
+      <c r="P211" s="8"/>
+    </row>
+    <row r="212" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K212" s="8"/>
+      <c r="L212" s="8"/>
+      <c r="M212" s="8"/>
+      <c r="N212" s="8"/>
+      <c r="O212" s="8"/>
+      <c r="P212" s="8"/>
+    </row>
+    <row r="213" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K213" s="8"/>
+      <c r="L213" s="8"/>
+      <c r="M213" s="8"/>
+      <c r="N213" s="8"/>
+      <c r="O213" s="8"/>
+      <c r="P213" s="8"/>
+    </row>
+    <row r="214" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K214" s="8"/>
+      <c r="L214" s="8"/>
+      <c r="M214" s="8"/>
+      <c r="N214" s="8"/>
+      <c r="O214" s="8"/>
+      <c r="P214" s="8"/>
+    </row>
+    <row r="215" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K215" s="8"/>
+      <c r="L215" s="8"/>
+      <c r="M215" s="8"/>
+      <c r="N215" s="8"/>
+      <c r="O215" s="8"/>
+      <c r="P215" s="8"/>
+    </row>
+    <row r="216" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K216" s="8"/>
+      <c r="L216" s="8"/>
+      <c r="M216" s="8"/>
+      <c r="N216" s="8"/>
+      <c r="O216" s="8"/>
+      <c r="P216" s="8"/>
+    </row>
+    <row r="217" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K217" s="8"/>
+      <c r="L217" s="8"/>
+      <c r="M217" s="8"/>
+      <c r="N217" s="8"/>
+      <c r="O217" s="8"/>
+      <c r="P217" s="8"/>
+    </row>
+    <row r="218" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K218" s="8"/>
+      <c r="L218" s="8"/>
+      <c r="M218" s="8"/>
+      <c r="N218" s="8"/>
+      <c r="O218" s="8"/>
+      <c r="P218" s="8"/>
+    </row>
+    <row r="219" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K219" s="8"/>
+      <c r="L219" s="8"/>
+      <c r="M219" s="8"/>
+      <c r="N219" s="8"/>
+      <c r="O219" s="8"/>
+      <c r="P219" s="8"/>
+    </row>
+    <row r="220" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K220" s="8"/>
+      <c r="L220" s="8"/>
+      <c r="M220" s="8"/>
+      <c r="N220" s="8"/>
+      <c r="O220" s="8"/>
+      <c r="P220" s="8"/>
+    </row>
+    <row r="221" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K221" s="8"/>
+      <c r="L221" s="8"/>
+      <c r="M221" s="8"/>
+      <c r="N221" s="8"/>
+      <c r="O221" s="8"/>
+      <c r="P221" s="8"/>
+    </row>
+    <row r="222" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K222" s="8"/>
+      <c r="L222" s="8"/>
+      <c r="M222" s="8"/>
+      <c r="N222" s="8"/>
+      <c r="O222" s="8"/>
+      <c r="P222" s="8"/>
+    </row>
+    <row r="223" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K223" s="8"/>
+      <c r="L223" s="8"/>
+      <c r="M223" s="8"/>
+      <c r="N223" s="8"/>
+      <c r="O223" s="8"/>
+      <c r="P223" s="8"/>
+    </row>
+    <row r="224" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K224" s="8"/>
+      <c r="L224" s="8"/>
+      <c r="M224" s="8"/>
+      <c r="N224" s="8"/>
+      <c r="O224" s="8"/>
+      <c r="P224" s="8"/>
+    </row>
+    <row r="225" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K225" s="8"/>
+      <c r="L225" s="8"/>
+      <c r="M225" s="8"/>
+      <c r="N225" s="8"/>
+      <c r="O225" s="8"/>
+      <c r="P225" s="8"/>
+    </row>
+    <row r="226" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K226" s="8"/>
+      <c r="L226" s="8"/>
+      <c r="M226" s="8"/>
+      <c r="N226" s="8"/>
+      <c r="O226" s="8"/>
+      <c r="P226" s="8"/>
+    </row>
+    <row r="227" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K227" s="8"/>
+      <c r="L227" s="8"/>
+      <c r="M227" s="8"/>
+      <c r="N227" s="8"/>
+      <c r="O227" s="8"/>
+      <c r="P227" s="8"/>
+    </row>
+    <row r="228" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K228" s="8"/>
+      <c r="L228" s="8"/>
+      <c r="M228" s="8"/>
+      <c r="N228" s="8"/>
+      <c r="O228" s="8"/>
+      <c r="P228" s="8"/>
+    </row>
+    <row r="229" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K229" s="8"/>
+      <c r="L229" s="8"/>
+      <c r="M229" s="8"/>
+      <c r="N229" s="8"/>
+      <c r="O229" s="8"/>
+      <c r="P229" s="8"/>
+    </row>
+    <row r="230" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K230" s="8"/>
+      <c r="L230" s="8"/>
+      <c r="M230" s="8"/>
+      <c r="N230" s="8"/>
+      <c r="O230" s="8"/>
+      <c r="P230" s="8"/>
+    </row>
+    <row r="231" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K231" s="8"/>
+      <c r="L231" s="8"/>
+      <c r="M231" s="8"/>
+      <c r="N231" s="8"/>
+      <c r="O231" s="8"/>
+      <c r="P231" s="8"/>
+    </row>
+    <row r="232" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K232" s="8"/>
+      <c r="L232" s="8"/>
+      <c r="M232" s="8"/>
+      <c r="N232" s="8"/>
+      <c r="O232" s="8"/>
+      <c r="P232" s="8"/>
+    </row>
+    <row r="233" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K233" s="8"/>
+      <c r="L233" s="8"/>
+      <c r="M233" s="8"/>
+      <c r="N233" s="8"/>
+      <c r="O233" s="8"/>
+      <c r="P233" s="8"/>
+    </row>
+    <row r="234" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K234" s="8"/>
+      <c r="L234" s="8"/>
+      <c r="M234" s="8"/>
+      <c r="N234" s="8"/>
+      <c r="O234" s="8"/>
+      <c r="P234" s="8"/>
+    </row>
+    <row r="235" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K235" s="8"/>
+      <c r="L235" s="8"/>
+      <c r="M235" s="8"/>
+      <c r="N235" s="8"/>
+      <c r="O235" s="8"/>
+      <c r="P235" s="8"/>
+    </row>
+    <row r="236" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K236" s="8"/>
+      <c r="L236" s="8"/>
+      <c r="M236" s="8"/>
+      <c r="N236" s="8"/>
+      <c r="O236" s="8"/>
+      <c r="P236" s="8"/>
+    </row>
+    <row r="237" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K237" s="8"/>
+      <c r="L237" s="8"/>
+      <c r="M237" s="8"/>
+      <c r="N237" s="8"/>
+      <c r="O237" s="8"/>
+      <c r="P237" s="8"/>
+    </row>
+    <row r="238" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K238" s="8"/>
+      <c r="L238" s="8"/>
+      <c r="M238" s="8"/>
+      <c r="N238" s="8"/>
+      <c r="O238" s="8"/>
+      <c r="P238" s="8"/>
+    </row>
+    <row r="239" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K239" s="8"/>
+      <c r="L239" s="8"/>
+      <c r="M239" s="8"/>
+      <c r="N239" s="8"/>
+      <c r="O239" s="8"/>
+      <c r="P239" s="8"/>
+    </row>
+    <row r="240" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K240" s="8"/>
+      <c r="L240" s="8"/>
+      <c r="M240" s="8"/>
+      <c r="N240" s="8"/>
+      <c r="O240" s="8"/>
+      <c r="P240" s="8"/>
+    </row>
+    <row r="241" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K241" s="8"/>
+      <c r="L241" s="8"/>
+      <c r="M241" s="8"/>
+      <c r="N241" s="8"/>
+      <c r="O241" s="8"/>
+      <c r="P241" s="8"/>
+    </row>
+    <row r="242" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K242" s="8"/>
+      <c r="L242" s="8"/>
+      <c r="M242" s="8"/>
+      <c r="N242" s="8"/>
+      <c r="O242" s="8"/>
+      <c r="P242" s="8"/>
+    </row>
+    <row r="243" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K243" s="8"/>
+      <c r="L243" s="8"/>
+      <c r="M243" s="8"/>
+      <c r="N243" s="8"/>
+      <c r="O243" s="8"/>
+      <c r="P243" s="8"/>
+    </row>
+    <row r="244" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K244" s="8"/>
+      <c r="L244" s="8"/>
+      <c r="M244" s="8"/>
+      <c r="N244" s="8"/>
+      <c r="O244" s="8"/>
+      <c r="P244" s="8"/>
+    </row>
+    <row r="245" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K245" s="8"/>
+      <c r="L245" s="8"/>
+      <c r="M245" s="8"/>
+      <c r="N245" s="8"/>
+      <c r="O245" s="8"/>
+      <c r="P245" s="8"/>
+    </row>
+    <row r="246" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K246" s="8"/>
+      <c r="L246" s="8"/>
+      <c r="M246" s="8"/>
+      <c r="N246" s="8"/>
+      <c r="O246" s="8"/>
+      <c r="P246" s="8"/>
+    </row>
+    <row r="247" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K247" s="8"/>
+      <c r="L247" s="8"/>
+      <c r="M247" s="8"/>
+      <c r="N247" s="8"/>
+      <c r="O247" s="8"/>
+      <c r="P247" s="8"/>
+    </row>
+    <row r="248" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K248" s="8"/>
+      <c r="L248" s="8"/>
+      <c r="M248" s="8"/>
+      <c r="N248" s="8"/>
+      <c r="O248" s="8"/>
+      <c r="P248" s="8"/>
+    </row>
+    <row r="249" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K249" s="8"/>
+      <c r="L249" s="8"/>
+      <c r="M249" s="8"/>
+      <c r="N249" s="8"/>
+      <c r="O249" s="8"/>
+      <c r="P249" s="8"/>
+    </row>
+    <row r="250" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K250" s="8"/>
+      <c r="L250" s="8"/>
+      <c r="M250" s="8"/>
+      <c r="N250" s="8"/>
+      <c r="O250" s="8"/>
+      <c r="P250" s="8"/>
+    </row>
+    <row r="251" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K251" s="8"/>
+      <c r="L251" s="8"/>
+      <c r="M251" s="8"/>
+      <c r="N251" s="8"/>
+      <c r="O251" s="8"/>
+      <c r="P251" s="8"/>
+    </row>
+    <row r="252" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K252" s="8"/>
+      <c r="L252" s="8"/>
+      <c r="M252" s="8"/>
+      <c r="N252" s="8"/>
+      <c r="O252" s="8"/>
+      <c r="P252" s="8"/>
+    </row>
+    <row r="253" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K253" s="8"/>
+      <c r="L253" s="8"/>
+      <c r="M253" s="8"/>
+      <c r="N253" s="8"/>
+      <c r="O253" s="8"/>
+      <c r="P253" s="8"/>
+    </row>
+    <row r="254" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K254" s="8"/>
+      <c r="L254" s="8"/>
+      <c r="M254" s="8"/>
+      <c r="N254" s="8"/>
+      <c r="O254" s="8"/>
+      <c r="P254" s="8"/>
+    </row>
+    <row r="255" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K255" s="8"/>
+      <c r="L255" s="8"/>
+      <c r="M255" s="8"/>
+      <c r="N255" s="8"/>
+      <c r="O255" s="8"/>
+      <c r="P255" s="8"/>
+    </row>
+    <row r="256" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K256" s="8"/>
+      <c r="L256" s="8"/>
+      <c r="M256" s="8"/>
+      <c r="N256" s="8"/>
+      <c r="O256" s="8"/>
+      <c r="P256" s="8"/>
+    </row>
+    <row r="257" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K257" s="8"/>
+      <c r="L257" s="8"/>
+      <c r="M257" s="8"/>
+      <c r="N257" s="8"/>
+      <c r="O257" s="8"/>
+      <c r="P257" s="8"/>
+    </row>
+    <row r="258" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K258" s="8"/>
+      <c r="L258" s="8"/>
+      <c r="M258" s="8"/>
+      <c r="N258" s="8"/>
+      <c r="O258" s="8"/>
+      <c r="P258" s="8"/>
+    </row>
+    <row r="259" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K259" s="8"/>
+      <c r="L259" s="8"/>
+      <c r="M259" s="8"/>
+      <c r="N259" s="8"/>
+      <c r="O259" s="8"/>
+      <c r="P259" s="8"/>
+    </row>
+    <row r="260" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K260" s="8"/>
+      <c r="L260" s="8"/>
+      <c r="M260" s="8"/>
+      <c r="N260" s="8"/>
+      <c r="O260" s="8"/>
+      <c r="P260" s="8"/>
+    </row>
+    <row r="261" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K261" s="8"/>
+      <c r="L261" s="8"/>
+      <c r="M261" s="8"/>
+      <c r="N261" s="8"/>
+      <c r="O261" s="8"/>
+      <c r="P261" s="8"/>
+    </row>
+    <row r="262" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K262" s="8"/>
+      <c r="L262" s="8"/>
+      <c r="M262" s="8"/>
+      <c r="N262" s="8"/>
+      <c r="O262" s="8"/>
+      <c r="P262" s="8"/>
+    </row>
+    <row r="263" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K263" s="8"/>
+      <c r="L263" s="8"/>
+      <c r="M263" s="8"/>
+      <c r="N263" s="8"/>
+      <c r="O263" s="8"/>
+      <c r="P263" s="8"/>
+    </row>
+    <row r="264" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K264" s="8"/>
+      <c r="L264" s="8"/>
+      <c r="M264" s="8"/>
+      <c r="N264" s="8"/>
+      <c r="O264" s="8"/>
+      <c r="P264" s="8"/>
+    </row>
+    <row r="265" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K265" s="8"/>
+      <c r="L265" s="8"/>
+      <c r="M265" s="8"/>
+      <c r="N265" s="8"/>
+      <c r="O265" s="8"/>
+      <c r="P265" s="8"/>
+    </row>
+    <row r="266" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K266" s="8"/>
+      <c r="L266" s="8"/>
+      <c r="M266" s="8"/>
+      <c r="N266" s="8"/>
+      <c r="O266" s="8"/>
+      <c r="P266" s="8"/>
+    </row>
+    <row r="267" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K267" s="8"/>
+      <c r="L267" s="8"/>
+      <c r="M267" s="8"/>
+      <c r="N267" s="8"/>
+      <c r="O267" s="8"/>
+      <c r="P267" s="8"/>
+    </row>
+    <row r="268" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K268" s="8"/>
+      <c r="L268" s="8"/>
+      <c r="M268" s="8"/>
+      <c r="N268" s="8"/>
+      <c r="O268" s="8"/>
+      <c r="P268" s="8"/>
+    </row>
+    <row r="269" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K269" s="8"/>
+      <c r="L269" s="8"/>
+      <c r="M269" s="8"/>
+      <c r="N269" s="8"/>
+      <c r="O269" s="8"/>
+      <c r="P269" s="8"/>
+    </row>
+    <row r="270" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K270" s="8"/>
+      <c r="L270" s="8"/>
+      <c r="M270" s="8"/>
+      <c r="N270" s="8"/>
+      <c r="O270" s="8"/>
+      <c r="P270" s="8"/>
+    </row>
+    <row r="271" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K271" s="8"/>
+      <c r="L271" s="8"/>
+      <c r="M271" s="8"/>
+      <c r="N271" s="8"/>
+      <c r="O271" s="8"/>
+      <c r="P271" s="8"/>
+    </row>
+    <row r="272" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K272" s="8"/>
+      <c r="L272" s="8"/>
+      <c r="M272" s="8"/>
+      <c r="N272" s="8"/>
+      <c r="O272" s="8"/>
+      <c r="P272" s="8"/>
+    </row>
+    <row r="273" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K273" s="8"/>
+      <c r="L273" s="8"/>
+      <c r="M273" s="8"/>
+      <c r="N273" s="8"/>
+      <c r="O273" s="8"/>
+      <c r="P273" s="8"/>
+    </row>
+    <row r="274" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K274" s="8"/>
+      <c r="L274" s="8"/>
+      <c r="M274" s="8"/>
+      <c r="N274" s="8"/>
+      <c r="O274" s="8"/>
+      <c r="P274" s="8"/>
+    </row>
+    <row r="275" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K275" s="8"/>
+      <c r="L275" s="8"/>
+      <c r="M275" s="8"/>
+      <c r="N275" s="8"/>
+      <c r="O275" s="8"/>
+      <c r="P275" s="8"/>
+    </row>
+    <row r="276" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K276" s="8"/>
+      <c r="L276" s="8"/>
+      <c r="M276" s="8"/>
+      <c r="N276" s="8"/>
+      <c r="O276" s="8"/>
+      <c r="P276" s="8"/>
+    </row>
+    <row r="277" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K277" s="8"/>
+      <c r="L277" s="8"/>
+      <c r="M277" s="8"/>
+      <c r="N277" s="8"/>
+      <c r="O277" s="8"/>
+      <c r="P277" s="8"/>
+    </row>
+    <row r="278" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K278" s="8"/>
+      <c r="L278" s="8"/>
+      <c r="M278" s="8"/>
+      <c r="N278" s="8"/>
+      <c r="O278" s="8"/>
+      <c r="P278" s="8"/>
+    </row>
+    <row r="279" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K279" s="8"/>
+      <c r="L279" s="8"/>
+      <c r="M279" s="8"/>
+      <c r="N279" s="8"/>
+      <c r="O279" s="8"/>
+      <c r="P279" s="8"/>
+    </row>
+    <row r="280" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K280" s="8"/>
+      <c r="L280" s="8"/>
+      <c r="M280" s="8"/>
+      <c r="N280" s="8"/>
+      <c r="O280" s="8"/>
+      <c r="P280" s="8"/>
+    </row>
+    <row r="281" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K281" s="8"/>
+      <c r="L281" s="8"/>
+      <c r="M281" s="8"/>
+      <c r="N281" s="8"/>
+      <c r="O281" s="8"/>
+      <c r="P281" s="8"/>
+    </row>
+    <row r="282" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K282" s="8"/>
+      <c r="L282" s="8"/>
+      <c r="M282" s="8"/>
+      <c r="N282" s="8"/>
+      <c r="O282" s="8"/>
+      <c r="P282" s="8"/>
+    </row>
+    <row r="283" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K283" s="8"/>
+      <c r="L283" s="8"/>
+      <c r="M283" s="8"/>
+      <c r="N283" s="8"/>
+      <c r="O283" s="8"/>
+      <c r="P283" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
